--- a/ep/ep/export/flourish/Hungary_name_group.xlsx
+++ b/ep/ep/export/flourish/Hungary_name_group.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="82">
   <si>
     <t>name1</t>
   </si>
@@ -243,12 +243,30 @@
   <si>
     <t>ECR</t>
   </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/alde.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/epp.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/S&amp;D.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/greens.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/independent.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/ecr.jpg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +281,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -297,16 +322,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -674,6 +705,9 @@
       <c r="C2" t="s">
         <v>70</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="E2">
         <v>0.792</v>
       </c>
@@ -703,6 +737,9 @@
       <c r="C3" t="s">
         <v>71</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="E3">
         <v>0.626</v>
       </c>
@@ -732,6 +769,9 @@
       <c r="C4" t="s">
         <v>72</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="E4">
         <v>0.979</v>
       </c>
@@ -761,6 +801,9 @@
       <c r="C5" t="s">
         <v>73</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="I5">
         <v>0.915</v>
       </c>
@@ -778,6 +821,9 @@
       <c r="C6" t="s">
         <v>74</v>
       </c>
+      <c r="D6" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="O6">
         <v>0.366</v>
       </c>
@@ -807,6 +853,9 @@
       <c r="C7" t="s">
         <v>71</v>
       </c>
+      <c r="D7" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="O7">
         <v>0.991</v>
       </c>
@@ -836,6 +885,9 @@
       <c r="C8" t="s">
         <v>72</v>
       </c>
+      <c r="D8" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="O8">
         <v>0.843</v>
       </c>
@@ -865,6 +917,9 @@
       <c r="C9" t="s">
         <v>73</v>
       </c>
+      <c r="D9" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="O9">
         <v>0.582</v>
       </c>
@@ -894,6 +949,9 @@
       <c r="C10" t="s">
         <v>74</v>
       </c>
+      <c r="D10" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="O10">
         <v>0.37</v>
       </c>
@@ -923,6 +981,9 @@
       <c r="C11" t="s">
         <v>71</v>
       </c>
+      <c r="D11" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="O11">
         <v>0.996</v>
       </c>
@@ -952,6 +1013,9 @@
       <c r="C12" t="s">
         <v>72</v>
       </c>
+      <c r="D12" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="O12">
         <v>0.845</v>
       </c>
@@ -981,6 +1045,9 @@
       <c r="C13" t="s">
         <v>73</v>
       </c>
+      <c r="D13" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="O13">
         <v>0.573</v>
       </c>
@@ -1010,6 +1077,9 @@
       <c r="C14" t="s">
         <v>70</v>
       </c>
+      <c r="D14" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="E14">
         <v>0.746</v>
       </c>
@@ -1039,6 +1109,9 @@
       <c r="C15" t="s">
         <v>75</v>
       </c>
+      <c r="D15" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="J15">
         <v>0.514</v>
       </c>
@@ -1068,6 +1141,9 @@
       <c r="C16" t="s">
         <v>74</v>
       </c>
+      <c r="D16" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="J16">
         <v>0.445</v>
       </c>
@@ -1112,6 +1188,9 @@
       <c r="C17" t="s">
         <v>71</v>
       </c>
+      <c r="D17" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="E17">
         <v>0.97</v>
       </c>
@@ -1171,6 +1250,9 @@
       <c r="C18" t="s">
         <v>72</v>
       </c>
+      <c r="D18" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="E18">
         <v>0.62</v>
       </c>
@@ -1230,6 +1312,9 @@
       <c r="C19" t="s">
         <v>73</v>
       </c>
+      <c r="D19" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="I19">
         <v>0.913</v>
       </c>
@@ -1265,6 +1350,9 @@
       <c r="C20" t="s">
         <v>70</v>
       </c>
+      <c r="D20" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="G20">
         <v>0.8179999999999999</v>
       </c>
@@ -1288,6 +1376,9 @@
       <c r="C21" t="s">
         <v>71</v>
       </c>
+      <c r="D21" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="G21">
         <v>0.991</v>
       </c>
@@ -1311,6 +1402,9 @@
       <c r="C22" t="s">
         <v>72</v>
       </c>
+      <c r="D22" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="G22">
         <v>0.751</v>
       </c>
@@ -1334,6 +1428,9 @@
       <c r="C23" t="s">
         <v>73</v>
       </c>
+      <c r="D23" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="I23">
         <v>0.885</v>
       </c>
@@ -1351,6 +1448,9 @@
       <c r="C24" t="s">
         <v>74</v>
       </c>
+      <c r="D24" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="O24">
         <v>0.572</v>
       </c>
@@ -1380,6 +1480,9 @@
       <c r="C25" t="s">
         <v>71</v>
       </c>
+      <c r="D25" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="O25">
         <v>0.577</v>
       </c>
@@ -1409,6 +1512,9 @@
       <c r="C26" t="s">
         <v>72</v>
       </c>
+      <c r="D26" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="O26">
         <v>0.727</v>
       </c>
@@ -1438,6 +1544,9 @@
       <c r="C27" t="s">
         <v>73</v>
       </c>
+      <c r="D27" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="O27">
         <v>1</v>
       </c>
@@ -1467,6 +1576,9 @@
       <c r="C28" t="s">
         <v>70</v>
       </c>
+      <c r="D28" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="E28">
         <v>0.72</v>
       </c>
@@ -1496,6 +1608,9 @@
       <c r="C29" t="s">
         <v>75</v>
       </c>
+      <c r="D29" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="J29">
         <v>0.65</v>
       </c>
@@ -1525,6 +1640,9 @@
       <c r="C30" t="s">
         <v>74</v>
       </c>
+      <c r="D30" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="J30">
         <v>0.511</v>
       </c>
@@ -1554,6 +1672,9 @@
       <c r="C31" t="s">
         <v>71</v>
       </c>
+      <c r="D31" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="E31">
         <v>0.953</v>
       </c>
@@ -1598,6 +1719,9 @@
       <c r="C32" t="s">
         <v>72</v>
       </c>
+      <c r="D32" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="E32">
         <v>0.576</v>
       </c>
@@ -1642,6 +1766,9 @@
       <c r="C33" t="s">
         <v>73</v>
       </c>
+      <c r="D33" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="I33">
         <v>0.876</v>
       </c>
@@ -1659,6 +1786,9 @@
       <c r="C34" t="s">
         <v>75</v>
       </c>
+      <c r="D34" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="K34">
         <v>0.528</v>
       </c>
@@ -1685,6 +1815,9 @@
       <c r="C35" t="s">
         <v>74</v>
       </c>
+      <c r="D35" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="K35">
         <v>0.979</v>
       </c>
@@ -1726,6 +1859,9 @@
       <c r="C36" t="s">
         <v>71</v>
       </c>
+      <c r="D36" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="K36">
         <v>0.535</v>
       </c>
@@ -1767,6 +1903,9 @@
       <c r="C37" t="s">
         <v>72</v>
       </c>
+      <c r="D37" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="K37">
         <v>0.532</v>
       </c>
@@ -1808,6 +1947,9 @@
       <c r="C38" t="s">
         <v>73</v>
       </c>
+      <c r="D38" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="O38">
         <v>0.573</v>
       </c>
@@ -1837,6 +1979,9 @@
       <c r="C39" t="s">
         <v>74</v>
       </c>
+      <c r="D39" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="O39">
         <v>0.406</v>
       </c>
@@ -1866,6 +2011,9 @@
       <c r="C40" t="s">
         <v>71</v>
       </c>
+      <c r="D40" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="O40">
         <v>0.885</v>
       </c>
@@ -1895,6 +2043,9 @@
       <c r="C41" t="s">
         <v>72</v>
       </c>
+      <c r="D41" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="O41">
         <v>0.989</v>
       </c>
@@ -1924,6 +2075,9 @@
       <c r="C42" t="s">
         <v>73</v>
       </c>
+      <c r="D42" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="O42">
         <v>0.722</v>
       </c>
@@ -1953,6 +2107,9 @@
       <c r="C43" t="s">
         <v>70</v>
       </c>
+      <c r="D43" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="E43">
         <v>0.783</v>
       </c>
@@ -1982,6 +2139,9 @@
       <c r="C44" t="s">
         <v>75</v>
       </c>
+      <c r="D44" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="J44">
         <v>0.598</v>
       </c>
@@ -2011,6 +2171,9 @@
       <c r="C45" t="s">
         <v>74</v>
       </c>
+      <c r="D45" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="J45">
         <v>0.432</v>
       </c>
@@ -2040,6 +2203,9 @@
       <c r="C46" t="s">
         <v>71</v>
       </c>
+      <c r="D46" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="E46">
         <v>0.611</v>
       </c>
@@ -2084,6 +2250,9 @@
       <c r="C47" t="s">
         <v>72</v>
       </c>
+      <c r="D47" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="E47">
         <v>0.982</v>
       </c>
@@ -2128,6 +2297,9 @@
       <c r="C48" t="s">
         <v>73</v>
       </c>
+      <c r="D48" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="I48">
         <v>0.832</v>
       </c>
@@ -2145,6 +2317,9 @@
       <c r="C49" t="s">
         <v>70</v>
       </c>
+      <c r="D49" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="E49">
         <v>0.722</v>
       </c>
@@ -2174,6 +2349,9 @@
       <c r="C50" t="s">
         <v>75</v>
       </c>
+      <c r="D50" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="J50">
         <v>0.667</v>
       </c>
@@ -2203,6 +2381,9 @@
       <c r="C51" t="s">
         <v>74</v>
       </c>
+      <c r="D51" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="J51">
         <v>0.511</v>
       </c>
@@ -2232,6 +2413,9 @@
       <c r="C52" t="s">
         <v>71</v>
       </c>
+      <c r="D52" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="E52">
         <v>0.951</v>
       </c>
@@ -2276,6 +2460,9 @@
       <c r="C53" t="s">
         <v>72</v>
       </c>
+      <c r="D53" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="E53">
         <v>0.584</v>
       </c>
@@ -2320,6 +2507,9 @@
       <c r="C54" t="s">
         <v>73</v>
       </c>
+      <c r="D54" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="I54">
         <v>0.87</v>
       </c>
@@ -2337,6 +2527,9 @@
       <c r="C55" t="s">
         <v>75</v>
       </c>
+      <c r="D55" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="J55">
         <v>0.474</v>
       </c>
@@ -2366,6 +2559,9 @@
       <c r="C56" t="s">
         <v>74</v>
       </c>
+      <c r="D56" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="J56">
         <v>1</v>
       </c>
@@ -2395,6 +2591,9 @@
       <c r="C57" t="s">
         <v>71</v>
       </c>
+      <c r="D57" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="J57">
         <v>0.515</v>
       </c>
@@ -2424,6 +2623,9 @@
       <c r="C58" t="s">
         <v>72</v>
       </c>
+      <c r="D58" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="J58">
         <v>0.425</v>
       </c>
@@ -2453,6 +2655,9 @@
       <c r="C59" t="s">
         <v>70</v>
       </c>
+      <c r="D59" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="E59">
         <v>0.77</v>
       </c>
@@ -2482,6 +2687,9 @@
       <c r="C60" t="s">
         <v>75</v>
       </c>
+      <c r="D60" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="J60">
         <v>0.62</v>
       </c>
@@ -2511,6 +2719,9 @@
       <c r="C61" t="s">
         <v>74</v>
       </c>
+      <c r="D61" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="J61">
         <v>0.416</v>
       </c>
@@ -2540,6 +2751,9 @@
       <c r="C62" t="s">
         <v>71</v>
       </c>
+      <c r="D62" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="E62">
         <v>0.597</v>
       </c>
@@ -2584,6 +2798,9 @@
       <c r="C63" t="s">
         <v>72</v>
       </c>
+      <c r="D63" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="E63">
         <v>0.981</v>
       </c>
@@ -2628,6 +2845,9 @@
       <c r="C64" t="s">
         <v>73</v>
       </c>
+      <c r="D64" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="I64">
         <v>0.641</v>
       </c>
@@ -2645,6 +2865,9 @@
       <c r="C65" t="s">
         <v>75</v>
       </c>
+      <c r="D65" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="J65">
         <v>0.602</v>
       </c>
@@ -2659,6 +2882,9 @@
       <c r="C66" t="s">
         <v>74</v>
       </c>
+      <c r="D66" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="J66">
         <v>0.5570000000000001</v>
       </c>
@@ -2673,6 +2899,9 @@
       <c r="C67" t="s">
         <v>71</v>
       </c>
+      <c r="D67" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="J67">
         <v>0.985</v>
       </c>
@@ -2687,6 +2916,9 @@
       <c r="C68" t="s">
         <v>72</v>
       </c>
+      <c r="D68" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="J68">
         <v>0.655</v>
       </c>
@@ -2701,6 +2933,9 @@
       <c r="C69" t="s">
         <v>75</v>
       </c>
+      <c r="D69" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="M69">
         <v>0.655</v>
       </c>
@@ -2721,6 +2956,9 @@
       <c r="C70" t="s">
         <v>74</v>
       </c>
+      <c r="D70" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="M70">
         <v>0.837</v>
       </c>
@@ -2741,6 +2979,9 @@
       <c r="C71" t="s">
         <v>71</v>
       </c>
+      <c r="D71" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="M71">
         <v>0.987</v>
       </c>
@@ -2761,6 +3002,9 @@
       <c r="C72" t="s">
         <v>72</v>
       </c>
+      <c r="D72" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="M72">
         <v>0.9</v>
       </c>
@@ -2781,6 +3025,9 @@
       <c r="C73" t="s">
         <v>70</v>
       </c>
+      <c r="D73" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F73">
         <v>0.6830000000000001</v>
       </c>
@@ -2807,6 +3054,9 @@
       <c r="C74" t="s">
         <v>71</v>
       </c>
+      <c r="D74" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="F74">
         <v>0.978</v>
       </c>
@@ -2833,6 +3083,9 @@
       <c r="C75" t="s">
         <v>72</v>
       </c>
+      <c r="D75" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="F75">
         <v>0.585</v>
       </c>
@@ -2859,6 +3112,9 @@
       <c r="C76" t="s">
         <v>73</v>
       </c>
+      <c r="D76" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="I76">
         <v>0.858</v>
       </c>
@@ -2876,6 +3132,9 @@
       <c r="C77" t="s">
         <v>70</v>
       </c>
+      <c r="D77" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="E77">
         <v>0.8120000000000001</v>
       </c>
@@ -2905,6 +3164,9 @@
       <c r="C78" t="s">
         <v>71</v>
       </c>
+      <c r="D78" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="E78">
         <v>0.626</v>
       </c>
@@ -2934,6 +3196,9 @@
       <c r="C79" t="s">
         <v>72</v>
       </c>
+      <c r="D79" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="E79">
         <v>0.974</v>
       </c>
@@ -2963,6 +3228,9 @@
       <c r="C80" t="s">
         <v>73</v>
       </c>
+      <c r="D80" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="I80">
         <v>0.93</v>
       </c>
@@ -2980,6 +3248,9 @@
       <c r="C81" t="s">
         <v>74</v>
       </c>
+      <c r="D81" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="O81">
         <v>0.375</v>
       </c>
@@ -3009,6 +3280,9 @@
       <c r="C82" t="s">
         <v>71</v>
       </c>
+      <c r="D82" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="O82">
         <v>0.986</v>
       </c>
@@ -3038,6 +3312,9 @@
       <c r="C83" t="s">
         <v>72</v>
       </c>
+      <c r="D83" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="O83">
         <v>0.841</v>
       </c>
@@ -3067,6 +3344,9 @@
       <c r="C84" t="s">
         <v>73</v>
       </c>
+      <c r="D84" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="O84">
         <v>0.572</v>
       </c>
@@ -3096,6 +3376,9 @@
       <c r="C85" t="s">
         <v>70</v>
       </c>
+      <c r="D85" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="E85">
         <v>0.703</v>
       </c>
@@ -3125,6 +3408,9 @@
       <c r="C86" t="s">
         <v>75</v>
       </c>
+      <c r="D86" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="J86">
         <v>0.653</v>
       </c>
@@ -3154,6 +3440,9 @@
       <c r="C87" t="s">
         <v>74</v>
       </c>
+      <c r="D87" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="J87">
         <v>0.505</v>
       </c>
@@ -3198,6 +3487,9 @@
       <c r="C88" t="s">
         <v>71</v>
       </c>
+      <c r="D88" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="E88">
         <v>0.9350000000000001</v>
       </c>
@@ -3257,6 +3549,9 @@
       <c r="C89" t="s">
         <v>72</v>
       </c>
+      <c r="D89" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="E89">
         <v>0.5600000000000001</v>
       </c>
@@ -3316,6 +3611,9 @@
       <c r="C90" t="s">
         <v>73</v>
       </c>
+      <c r="D90" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="I90">
         <v>0.876</v>
       </c>
@@ -3351,6 +3649,9 @@
       <c r="C91" t="s">
         <v>70</v>
       </c>
+      <c r="D91" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="E91">
         <v>0.9379999999999999</v>
       </c>
@@ -3365,6 +3666,9 @@
       <c r="C92" t="s">
         <v>71</v>
       </c>
+      <c r="D92" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="E92">
         <v>0.972</v>
       </c>
@@ -3379,6 +3683,9 @@
       <c r="C93" t="s">
         <v>72</v>
       </c>
+      <c r="D93" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="E93">
         <v>0.9350000000000001</v>
       </c>
@@ -3393,6 +3700,9 @@
       <c r="C94" t="s">
         <v>70</v>
       </c>
+      <c r="D94" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="E94">
         <v>0.748</v>
       </c>
@@ -3422,6 +3732,9 @@
       <c r="C95" t="s">
         <v>71</v>
       </c>
+      <c r="D95" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="E95">
         <v>0.589</v>
       </c>
@@ -3451,6 +3764,9 @@
       <c r="C96" t="s">
         <v>72</v>
       </c>
+      <c r="D96" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="E96">
         <v>0.978</v>
       </c>
@@ -3480,6 +3796,9 @@
       <c r="C97" t="s">
         <v>73</v>
       </c>
+      <c r="D97" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="I97">
         <v>0.949</v>
       </c>
@@ -3497,6 +3816,9 @@
       <c r="C98" t="s">
         <v>75</v>
       </c>
+      <c r="D98" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="K98">
         <v>0.642</v>
       </c>
@@ -3523,6 +3845,9 @@
       <c r="C99" t="s">
         <v>74</v>
       </c>
+      <c r="D99" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="K99">
         <v>0.598</v>
       </c>
@@ -3558,6 +3883,9 @@
       <c r="C100" t="s">
         <v>71</v>
       </c>
+      <c r="D100" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="K100">
         <v>0.983</v>
       </c>
@@ -3593,6 +3921,9 @@
       <c r="C101" t="s">
         <v>72</v>
       </c>
+      <c r="D101" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="K101">
         <v>0.726</v>
       </c>
@@ -3628,6 +3959,9 @@
       <c r="C102" t="s">
         <v>73</v>
       </c>
+      <c r="D102" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="O102">
         <v>0.5639999999999999</v>
       </c>
@@ -3651,6 +3985,9 @@
       <c r="C103" t="s">
         <v>70</v>
       </c>
+      <c r="D103" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="E103">
         <v>0.743</v>
       </c>
@@ -3665,6 +4002,9 @@
       <c r="C104" t="s">
         <v>71</v>
       </c>
+      <c r="D104" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="E104">
         <v>0.956</v>
       </c>
@@ -3679,6 +4019,9 @@
       <c r="C105" t="s">
         <v>72</v>
       </c>
+      <c r="D105" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="E105">
         <v>0.61</v>
       </c>
@@ -3693,6 +4036,9 @@
       <c r="C106" t="s">
         <v>70</v>
       </c>
+      <c r="D106" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="E106">
         <v>0.995</v>
       </c>
@@ -3722,6 +4068,9 @@
       <c r="C107" t="s">
         <v>71</v>
       </c>
+      <c r="D107" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="E107">
         <v>0.729</v>
       </c>
@@ -3751,6 +4100,9 @@
       <c r="C108" t="s">
         <v>72</v>
       </c>
+      <c r="D108" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="E108">
         <v>0.772</v>
       </c>
@@ -3780,6 +4132,9 @@
       <c r="C109" t="s">
         <v>73</v>
       </c>
+      <c r="D109" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="I109">
         <v>0.631</v>
       </c>
@@ -3797,6 +4152,9 @@
       <c r="C110" t="s">
         <v>74</v>
       </c>
+      <c r="D110" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="O110">
         <v>0.468</v>
       </c>
@@ -3826,6 +4184,9 @@
       <c r="C111" t="s">
         <v>71</v>
       </c>
+      <c r="D111" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="O111">
         <v>0.819</v>
       </c>
@@ -3855,6 +4216,9 @@
       <c r="C112" t="s">
         <v>72</v>
       </c>
+      <c r="D112" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="O112">
         <v>0.987</v>
       </c>
@@ -3884,6 +4248,9 @@
       <c r="C113" t="s">
         <v>73</v>
       </c>
+      <c r="D113" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="O113">
         <v>0.754</v>
       </c>
@@ -3913,6 +4280,9 @@
       <c r="C114" t="s">
         <v>75</v>
       </c>
+      <c r="D114" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="J114">
         <v>0.647</v>
       </c>
@@ -3933,6 +4303,9 @@
       <c r="C115" t="s">
         <v>74</v>
       </c>
+      <c r="D115" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="J115">
         <v>0.514</v>
       </c>
@@ -3953,6 +4326,9 @@
       <c r="C116" t="s">
         <v>71</v>
       </c>
+      <c r="D116" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="J116">
         <v>0.981</v>
       </c>
@@ -3973,6 +4349,9 @@
       <c r="C117" t="s">
         <v>72</v>
       </c>
+      <c r="D117" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="J117">
         <v>0.663</v>
       </c>
@@ -3993,6 +4372,9 @@
       <c r="C118" t="s">
         <v>70</v>
       </c>
+      <c r="D118" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="E118">
         <v>0.735</v>
       </c>
@@ -4022,6 +4404,9 @@
       <c r="C119" t="s">
         <v>75</v>
       </c>
+      <c r="D119" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="J119">
         <v>0.6899999999999999</v>
       </c>
@@ -4051,6 +4436,9 @@
       <c r="C120" t="s">
         <v>74</v>
       </c>
+      <c r="D120" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="J120">
         <v>0.491</v>
       </c>
@@ -4095,6 +4483,9 @@
       <c r="C121" t="s">
         <v>71</v>
       </c>
+      <c r="D121" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="E121">
         <v>0.961</v>
       </c>
@@ -4154,6 +4545,9 @@
       <c r="C122" t="s">
         <v>72</v>
       </c>
+      <c r="D122" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="E122">
         <v>0.607</v>
       </c>
@@ -4213,6 +4607,9 @@
       <c r="C123" t="s">
         <v>73</v>
       </c>
+      <c r="D123" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="I123">
         <v>0.869</v>
       </c>
@@ -4248,6 +4645,9 @@
       <c r="C124" t="s">
         <v>70</v>
       </c>
+      <c r="D124" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="E124">
         <v>0.646</v>
       </c>
@@ -4277,6 +4677,9 @@
       <c r="C125" t="s">
         <v>71</v>
       </c>
+      <c r="D125" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="E125">
         <v>0.606</v>
       </c>
@@ -4306,6 +4709,9 @@
       <c r="C126" t="s">
         <v>72</v>
       </c>
+      <c r="D126" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="E126">
         <v>0.957</v>
       </c>
@@ -4335,6 +4741,9 @@
       <c r="C127" t="s">
         <v>73</v>
       </c>
+      <c r="D127" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="I127">
         <v>0.787</v>
       </c>
@@ -4352,6 +4761,9 @@
       <c r="C128" t="s">
         <v>70</v>
       </c>
+      <c r="D128" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="E128">
         <v>0.736</v>
       </c>
@@ -4381,6 +4793,9 @@
       <c r="C129" t="s">
         <v>75</v>
       </c>
+      <c r="D129" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="J129">
         <v>0.655</v>
       </c>
@@ -4410,6 +4825,9 @@
       <c r="C130" t="s">
         <v>74</v>
       </c>
+      <c r="D130" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="J130">
         <v>0.493</v>
       </c>
@@ -4454,6 +4872,9 @@
       <c r="C131" t="s">
         <v>71</v>
       </c>
+      <c r="D131" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="E131">
         <v>0.962</v>
       </c>
@@ -4513,6 +4934,9 @@
       <c r="C132" t="s">
         <v>72</v>
       </c>
+      <c r="D132" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="E132">
         <v>0.615</v>
       </c>
@@ -4572,6 +4996,9 @@
       <c r="C133" t="s">
         <v>73</v>
       </c>
+      <c r="D133" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="I133">
         <v>0.873</v>
       </c>
@@ -4607,6 +5034,9 @@
       <c r="C134" t="s">
         <v>75</v>
       </c>
+      <c r="D134" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="J134">
         <v>0.636</v>
       </c>
@@ -4636,6 +5066,9 @@
       <c r="C135" t="s">
         <v>74</v>
       </c>
+      <c r="D135" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="J135">
         <v>0.401</v>
       </c>
@@ -4665,6 +5098,9 @@
       <c r="C136" t="s">
         <v>71</v>
       </c>
+      <c r="D136" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="J136">
         <v>0.678</v>
       </c>
@@ -4694,6 +5130,9 @@
       <c r="C137" t="s">
         <v>72</v>
       </c>
+      <c r="D137" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="J137">
         <v>0.967</v>
       </c>
@@ -4723,6 +5162,9 @@
       <c r="C138" t="s">
         <v>75</v>
       </c>
+      <c r="D138" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="J138">
         <v>0.167</v>
       </c>
@@ -4752,6 +5194,9 @@
       <c r="C139" t="s">
         <v>74</v>
       </c>
+      <c r="D139" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="J139">
         <v>1</v>
       </c>
@@ -4796,6 +5241,9 @@
       <c r="C140" t="s">
         <v>71</v>
       </c>
+      <c r="D140" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="J140">
         <v>0.419</v>
       </c>
@@ -4840,6 +5288,9 @@
       <c r="C141" t="s">
         <v>72</v>
       </c>
+      <c r="D141" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="J141">
         <v>0.306</v>
       </c>
@@ -4884,6 +5335,9 @@
       <c r="C142" t="s">
         <v>73</v>
       </c>
+      <c r="D142" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="O142">
         <v>0.586</v>
       </c>
@@ -4913,6 +5367,9 @@
       <c r="C143" t="s">
         <v>75</v>
       </c>
+      <c r="D143" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="J143">
         <v>1</v>
       </c>
@@ -4942,6 +5399,9 @@
       <c r="C144" t="s">
         <v>74</v>
       </c>
+      <c r="D144" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="J144">
         <v>0.525</v>
       </c>
@@ -4971,6 +5431,9 @@
       <c r="C145" t="s">
         <v>71</v>
       </c>
+      <c r="D145" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="J145">
         <v>0.641</v>
       </c>
@@ -5000,6 +5463,9 @@
       <c r="C146" t="s">
         <v>72</v>
       </c>
+      <c r="D146" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="J146">
         <v>0.62</v>
       </c>
@@ -5029,6 +5495,9 @@
       <c r="C147" t="s">
         <v>70</v>
       </c>
+      <c r="D147" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="E147">
         <v>0.735</v>
       </c>
@@ -5058,6 +5527,9 @@
       <c r="C148" t="s">
         <v>75</v>
       </c>
+      <c r="D148" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="J148">
         <v>0.669</v>
       </c>
@@ -5087,6 +5559,9 @@
       <c r="C149" t="s">
         <v>74</v>
       </c>
+      <c r="D149" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="J149">
         <v>0.505</v>
       </c>
@@ -5116,6 +5591,9 @@
       <c r="C150" t="s">
         <v>71</v>
       </c>
+      <c r="D150" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="E150">
         <v>0.966</v>
       </c>
@@ -5160,6 +5638,9 @@
       <c r="C151" t="s">
         <v>72</v>
       </c>
+      <c r="D151" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="E151">
         <v>0.621</v>
       </c>
@@ -5204,6 +5685,9 @@
       <c r="C152" t="s">
         <v>73</v>
       </c>
+      <c r="D152" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="I152">
         <v>0.892</v>
       </c>
@@ -5221,6 +5705,9 @@
       <c r="C153" t="s">
         <v>70</v>
       </c>
+      <c r="D153" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="I153">
         <v>0.59</v>
       </c>
@@ -5238,6 +5725,9 @@
       <c r="C154" t="s">
         <v>75</v>
       </c>
+      <c r="D154" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="J154">
         <v>0.602</v>
       </c>
@@ -5267,6 +5757,9 @@
       <c r="C155" t="s">
         <v>74</v>
       </c>
+      <c r="D155" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="J155">
         <v>0.377</v>
       </c>
@@ -5311,6 +5804,9 @@
       <c r="C156" t="s">
         <v>71</v>
       </c>
+      <c r="D156" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="I156">
         <v>0.871</v>
       </c>
@@ -5358,6 +5854,9 @@
       <c r="C157" t="s">
         <v>72</v>
       </c>
+      <c r="D157" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="I157">
         <v>0.829</v>
       </c>
@@ -5405,6 +5904,9 @@
       <c r="C158" t="s">
         <v>73</v>
       </c>
+      <c r="D158" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="I158">
         <v>1</v>
       </c>
@@ -5440,6 +5942,9 @@
       <c r="C159" t="s">
         <v>70</v>
       </c>
+      <c r="D159" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="E159">
         <v>0.73</v>
       </c>
@@ -5469,6 +5974,9 @@
       <c r="C160" t="s">
         <v>75</v>
       </c>
+      <c r="D160" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="J160">
         <v>0.711</v>
       </c>
@@ -5495,6 +6003,9 @@
       <c r="C161" t="s">
         <v>74</v>
       </c>
+      <c r="D161" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="J161">
         <v>0.47</v>
       </c>
@@ -5533,6 +6044,9 @@
       <c r="C162" t="s">
         <v>71</v>
       </c>
+      <c r="D162" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="E162">
         <v>0.963</v>
       </c>
@@ -5586,6 +6100,9 @@
       <c r="C163" t="s">
         <v>72</v>
       </c>
+      <c r="D163" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="E163">
         <v>0.594</v>
       </c>
@@ -5639,6 +6156,9 @@
       <c r="C164" t="s">
         <v>73</v>
       </c>
+      <c r="D164" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="I164">
         <v>0.875</v>
       </c>
@@ -5665,6 +6185,9 @@
       <c r="C165" t="s">
         <v>70</v>
       </c>
+      <c r="D165" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="E165">
         <v>0.791</v>
       </c>
@@ -5694,6 +6217,9 @@
       <c r="C166" t="s">
         <v>71</v>
       </c>
+      <c r="D166" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="E166">
         <v>0.547</v>
       </c>
@@ -5723,6 +6249,9 @@
       <c r="C167" t="s">
         <v>72</v>
       </c>
+      <c r="D167" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="E167">
         <v>0.985</v>
       </c>
@@ -5752,6 +6281,9 @@
       <c r="C168" t="s">
         <v>73</v>
       </c>
+      <c r="D168" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="I168">
         <v>0.9429999999999999</v>
       </c>
@@ -5769,6 +6301,9 @@
       <c r="C169" t="s">
         <v>74</v>
       </c>
+      <c r="D169" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="O169">
         <v>0.373</v>
       </c>
@@ -5798,6 +6333,9 @@
       <c r="C170" t="s">
         <v>71</v>
       </c>
+      <c r="D170" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="O170">
         <v>0.995</v>
       </c>
@@ -5827,6 +6365,9 @@
       <c r="C171" t="s">
         <v>72</v>
       </c>
+      <c r="D171" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="O171">
         <v>0.838</v>
       </c>
@@ -5856,6 +6397,9 @@
       <c r="C172" t="s">
         <v>73</v>
       </c>
+      <c r="D172" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="O172">
         <v>0.571</v>
       </c>
@@ -5885,6 +6429,9 @@
       <c r="C173" t="s">
         <v>70</v>
       </c>
+      <c r="D173" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="E173">
         <v>0.773</v>
       </c>
@@ -5914,6 +6461,9 @@
       <c r="C174" t="s">
         <v>75</v>
       </c>
+      <c r="D174" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="J174">
         <v>0.669</v>
       </c>
@@ -5928,6 +6478,9 @@
       <c r="C175" t="s">
         <v>74</v>
       </c>
+      <c r="D175" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="J175">
         <v>0.462</v>
       </c>
@@ -5942,6 +6495,9 @@
       <c r="C176" t="s">
         <v>71</v>
       </c>
+      <c r="D176" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="E176">
         <v>0.92</v>
       </c>
@@ -5971,6 +6527,9 @@
       <c r="C177" t="s">
         <v>72</v>
       </c>
+      <c r="D177" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="E177">
         <v>0.588</v>
       </c>
@@ -6000,6 +6559,9 @@
       <c r="C178" t="s">
         <v>73</v>
       </c>
+      <c r="D178" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="I178">
         <v>0.865</v>
       </c>
@@ -6017,6 +6579,9 @@
       <c r="C179" t="s">
         <v>74</v>
       </c>
+      <c r="D179" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="O179">
         <v>0.44</v>
       </c>
@@ -6046,6 +6611,9 @@
       <c r="C180" t="s">
         <v>71</v>
       </c>
+      <c r="D180" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="O180">
         <v>0.836</v>
       </c>
@@ -6075,6 +6643,9 @@
       <c r="C181" t="s">
         <v>72</v>
       </c>
+      <c r="D181" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="O181">
         <v>0.988</v>
       </c>
@@ -6104,6 +6675,9 @@
       <c r="C182" t="s">
         <v>73</v>
       </c>
+      <c r="D182" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="O182">
         <v>0.709</v>
       </c>
@@ -6133,6 +6707,9 @@
       <c r="C183" t="s">
         <v>70</v>
       </c>
+      <c r="D183" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="E183">
         <v>0.782</v>
       </c>
@@ -6162,6 +6739,9 @@
       <c r="C184" t="s">
         <v>71</v>
       </c>
+      <c r="D184" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="E184">
         <v>0.9320000000000001</v>
       </c>
@@ -6191,6 +6771,9 @@
       <c r="C185" t="s">
         <v>72</v>
       </c>
+      <c r="D185" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="E185">
         <v>0.65</v>
       </c>
@@ -6220,6 +6803,9 @@
       <c r="C186" t="s">
         <v>73</v>
       </c>
+      <c r="D186" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="I186">
         <v>0.865</v>
       </c>
@@ -6237,6 +6823,9 @@
       <c r="C187" t="s">
         <v>70</v>
       </c>
+      <c r="D187" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="E187">
         <v>0.804</v>
       </c>
@@ -6266,6 +6855,9 @@
       <c r="C188" t="s">
         <v>71</v>
       </c>
+      <c r="D188" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="E188">
         <v>0.648</v>
       </c>
@@ -6295,6 +6887,9 @@
       <c r="C189" t="s">
         <v>72</v>
       </c>
+      <c r="D189" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="E189">
         <v>0.981</v>
       </c>
@@ -6324,6 +6919,9 @@
       <c r="C190" t="s">
         <v>73</v>
       </c>
+      <c r="D190" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="I190">
         <v>0.8159999999999999</v>
       </c>
@@ -6341,6 +6939,9 @@
       <c r="C191" t="s">
         <v>75</v>
       </c>
+      <c r="D191" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="J191">
         <v>0.514</v>
       </c>
@@ -6370,6 +6971,9 @@
       <c r="C192" t="s">
         <v>74</v>
       </c>
+      <c r="D192" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="J192">
         <v>0.382</v>
       </c>
@@ -6414,6 +7018,9 @@
       <c r="C193" t="s">
         <v>71</v>
       </c>
+      <c r="D193" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="J193">
         <v>0.986</v>
       </c>
@@ -6458,6 +7065,9 @@
       <c r="C194" t="s">
         <v>72</v>
       </c>
+      <c r="D194" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="J194">
         <v>0.708</v>
       </c>
@@ -6502,6 +7112,9 @@
       <c r="C195" t="s">
         <v>73</v>
       </c>
+      <c r="D195" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="O195">
         <v>0.594</v>
       </c>
@@ -6531,6 +7144,9 @@
       <c r="C196" t="s">
         <v>74</v>
       </c>
+      <c r="D196" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="O196">
         <v>0.59</v>
       </c>
@@ -6560,6 +7176,9 @@
       <c r="C197" t="s">
         <v>71</v>
       </c>
+      <c r="D197" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="O197">
         <v>0.5679999999999999</v>
       </c>
@@ -6589,6 +7208,9 @@
       <c r="C198" t="s">
         <v>72</v>
       </c>
+      <c r="D198" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="O198">
         <v>0.729</v>
       </c>
@@ -6618,6 +7240,9 @@
       <c r="C199" t="s">
         <v>73</v>
       </c>
+      <c r="D199" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="O199">
         <v>1</v>
       </c>
@@ -6647,6 +7272,9 @@
       <c r="C200" t="s">
         <v>74</v>
       </c>
+      <c r="D200" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="O200">
         <v>0.465</v>
       </c>
@@ -6676,6 +7304,9 @@
       <c r="C201" t="s">
         <v>71</v>
       </c>
+      <c r="D201" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="O201">
         <v>0.8149999999999999</v>
       </c>
@@ -6705,6 +7336,9 @@
       <c r="C202" t="s">
         <v>72</v>
       </c>
+      <c r="D202" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="O202">
         <v>0.982</v>
       </c>
@@ -6734,6 +7368,9 @@
       <c r="C203" t="s">
         <v>73</v>
       </c>
+      <c r="D203" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="O203">
         <v>0.727</v>
       </c>
@@ -6763,6 +7400,9 @@
       <c r="C204" t="s">
         <v>70</v>
       </c>
+      <c r="D204" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="G204">
         <v>0.985</v>
       </c>
@@ -6786,6 +7426,9 @@
       <c r="C205" t="s">
         <v>71</v>
       </c>
+      <c r="D205" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="G205">
         <v>0.8179999999999999</v>
       </c>
@@ -6809,6 +7452,9 @@
       <c r="C206" t="s">
         <v>72</v>
       </c>
+      <c r="D206" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="G206">
         <v>0.787</v>
       </c>
@@ -6832,6 +7478,9 @@
       <c r="C207" t="s">
         <v>73</v>
       </c>
+      <c r="D207" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="I207">
         <v>0.509</v>
       </c>
@@ -6849,6 +7498,9 @@
       <c r="C208" t="s">
         <v>70</v>
       </c>
+      <c r="D208" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="E208">
         <v>0.755</v>
       </c>
@@ -6878,6 +7530,9 @@
       <c r="C209" t="s">
         <v>75</v>
       </c>
+      <c r="D209" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="J209">
         <v>0.625</v>
       </c>
@@ -6907,6 +7562,9 @@
       <c r="C210" t="s">
         <v>74</v>
       </c>
+      <c r="D210" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="J210">
         <v>0.407</v>
       </c>
@@ -6936,6 +7594,9 @@
       <c r="C211" t="s">
         <v>71</v>
       </c>
+      <c r="D211" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="E211">
         <v>0.482</v>
       </c>
@@ -6980,6 +7641,9 @@
       <c r="C212" t="s">
         <v>72</v>
       </c>
+      <c r="D212" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="E212">
         <v>0.977</v>
       </c>
@@ -7024,6 +7688,9 @@
       <c r="C213" t="s">
         <v>73</v>
       </c>
+      <c r="D213" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="I213">
         <v>0.783</v>
       </c>
@@ -7041,6 +7708,9 @@
       <c r="C214" t="s">
         <v>75</v>
       </c>
+      <c r="D214" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="K214">
         <v>0.612</v>
       </c>
@@ -7067,6 +7737,9 @@
       <c r="C215" t="s">
         <v>74</v>
       </c>
+      <c r="D215" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="K215">
         <v>0.587</v>
       </c>
@@ -7093,6 +7766,9 @@
       <c r="C216" t="s">
         <v>71</v>
       </c>
+      <c r="D216" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="K216">
         <v>0.981</v>
       </c>
@@ -7119,6 +7795,9 @@
       <c r="C217" t="s">
         <v>72</v>
       </c>
+      <c r="D217" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="K217">
         <v>0.731</v>
       </c>
@@ -7145,6 +7824,9 @@
       <c r="C218" t="s">
         <v>75</v>
       </c>
+      <c r="D218" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="J218">
         <v>0.582</v>
       </c>
@@ -7159,6 +7841,9 @@
       <c r="C219" t="s">
         <v>74</v>
       </c>
+      <c r="D219" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="J219">
         <v>1</v>
       </c>
@@ -7191,6 +7876,9 @@
       <c r="C220" t="s">
         <v>71</v>
       </c>
+      <c r="D220" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="J220">
         <v>0.497</v>
       </c>
@@ -7223,6 +7911,9 @@
       <c r="C221" t="s">
         <v>72</v>
       </c>
+      <c r="D221" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="J221">
         <v>0.433</v>
       </c>
@@ -7255,6 +7946,9 @@
       <c r="C222" t="s">
         <v>73</v>
       </c>
+      <c r="D222" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="O222">
         <v>0.582</v>
       </c>
@@ -7284,6 +7978,9 @@
       <c r="C223" t="s">
         <v>70</v>
       </c>
+      <c r="D223" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="E223">
         <v>0.713</v>
       </c>
@@ -7313,6 +8010,9 @@
       <c r="C224" t="s">
         <v>71</v>
       </c>
+      <c r="D224" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="E224">
         <v>0.955</v>
       </c>
@@ -7342,6 +8042,9 @@
       <c r="C225" t="s">
         <v>72</v>
       </c>
+      <c r="D225" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="E225">
         <v>0.572</v>
       </c>
@@ -7371,6 +8074,9 @@
       <c r="C226" t="s">
         <v>73</v>
       </c>
+      <c r="D226" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="I226">
         <v>0.805</v>
       </c>
@@ -7388,6 +8094,9 @@
       <c r="C227" t="s">
         <v>75</v>
       </c>
+      <c r="D227" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="J227">
         <v>0.653</v>
       </c>
@@ -7417,6 +8126,9 @@
       <c r="C228" t="s">
         <v>74</v>
       </c>
+      <c r="D228" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="J228">
         <v>0.516</v>
       </c>
@@ -7461,6 +8173,9 @@
       <c r="C229" t="s">
         <v>71</v>
       </c>
+      <c r="D229" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="J229">
         <v>0.986</v>
       </c>
@@ -7505,6 +8220,9 @@
       <c r="C230" t="s">
         <v>72</v>
       </c>
+      <c r="D230" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="J230">
         <v>0.665</v>
       </c>
@@ -7549,6 +8267,9 @@
       <c r="C231" t="s">
         <v>73</v>
       </c>
+      <c r="D231" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="O231">
         <v>0.586</v>
       </c>
@@ -7578,6 +8299,9 @@
       <c r="C232" t="s">
         <v>75</v>
       </c>
+      <c r="D232" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="J232">
         <v>0.65</v>
       </c>
@@ -7607,6 +8331,9 @@
       <c r="C233" t="s">
         <v>74</v>
       </c>
+      <c r="D233" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="J233">
         <v>0.493</v>
       </c>
@@ -7636,6 +8363,9 @@
       <c r="C234" t="s">
         <v>71</v>
       </c>
+      <c r="D234" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="J234">
         <v>0.981</v>
       </c>
@@ -7665,6 +8395,9 @@
       <c r="C235" t="s">
         <v>72</v>
       </c>
+      <c r="D235" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="J235">
         <v>0.673</v>
       </c>
@@ -7685,6 +8418,242 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D29" r:id="rId28"/>
+    <hyperlink ref="D30" r:id="rId29"/>
+    <hyperlink ref="D31" r:id="rId30"/>
+    <hyperlink ref="D32" r:id="rId31"/>
+    <hyperlink ref="D33" r:id="rId32"/>
+    <hyperlink ref="D34" r:id="rId33"/>
+    <hyperlink ref="D35" r:id="rId34"/>
+    <hyperlink ref="D36" r:id="rId35"/>
+    <hyperlink ref="D37" r:id="rId36"/>
+    <hyperlink ref="D38" r:id="rId37"/>
+    <hyperlink ref="D39" r:id="rId38"/>
+    <hyperlink ref="D40" r:id="rId39"/>
+    <hyperlink ref="D41" r:id="rId40"/>
+    <hyperlink ref="D42" r:id="rId41"/>
+    <hyperlink ref="D43" r:id="rId42"/>
+    <hyperlink ref="D44" r:id="rId43"/>
+    <hyperlink ref="D45" r:id="rId44"/>
+    <hyperlink ref="D46" r:id="rId45"/>
+    <hyperlink ref="D47" r:id="rId46"/>
+    <hyperlink ref="D48" r:id="rId47"/>
+    <hyperlink ref="D49" r:id="rId48"/>
+    <hyperlink ref="D50" r:id="rId49"/>
+    <hyperlink ref="D51" r:id="rId50"/>
+    <hyperlink ref="D52" r:id="rId51"/>
+    <hyperlink ref="D53" r:id="rId52"/>
+    <hyperlink ref="D54" r:id="rId53"/>
+    <hyperlink ref="D55" r:id="rId54"/>
+    <hyperlink ref="D56" r:id="rId55"/>
+    <hyperlink ref="D57" r:id="rId56"/>
+    <hyperlink ref="D58" r:id="rId57"/>
+    <hyperlink ref="D59" r:id="rId58"/>
+    <hyperlink ref="D60" r:id="rId59"/>
+    <hyperlink ref="D61" r:id="rId60"/>
+    <hyperlink ref="D62" r:id="rId61"/>
+    <hyperlink ref="D63" r:id="rId62"/>
+    <hyperlink ref="D64" r:id="rId63"/>
+    <hyperlink ref="D65" r:id="rId64"/>
+    <hyperlink ref="D66" r:id="rId65"/>
+    <hyperlink ref="D67" r:id="rId66"/>
+    <hyperlink ref="D68" r:id="rId67"/>
+    <hyperlink ref="D69" r:id="rId68"/>
+    <hyperlink ref="D70" r:id="rId69"/>
+    <hyperlink ref="D71" r:id="rId70"/>
+    <hyperlink ref="D72" r:id="rId71"/>
+    <hyperlink ref="D73" r:id="rId72"/>
+    <hyperlink ref="D74" r:id="rId73"/>
+    <hyperlink ref="D75" r:id="rId74"/>
+    <hyperlink ref="D76" r:id="rId75"/>
+    <hyperlink ref="D77" r:id="rId76"/>
+    <hyperlink ref="D78" r:id="rId77"/>
+    <hyperlink ref="D79" r:id="rId78"/>
+    <hyperlink ref="D80" r:id="rId79"/>
+    <hyperlink ref="D81" r:id="rId80"/>
+    <hyperlink ref="D82" r:id="rId81"/>
+    <hyperlink ref="D83" r:id="rId82"/>
+    <hyperlink ref="D84" r:id="rId83"/>
+    <hyperlink ref="D85" r:id="rId84"/>
+    <hyperlink ref="D86" r:id="rId85"/>
+    <hyperlink ref="D87" r:id="rId86"/>
+    <hyperlink ref="D88" r:id="rId87"/>
+    <hyperlink ref="D89" r:id="rId88"/>
+    <hyperlink ref="D90" r:id="rId89"/>
+    <hyperlink ref="D91" r:id="rId90"/>
+    <hyperlink ref="D92" r:id="rId91"/>
+    <hyperlink ref="D93" r:id="rId92"/>
+    <hyperlink ref="D94" r:id="rId93"/>
+    <hyperlink ref="D95" r:id="rId94"/>
+    <hyperlink ref="D96" r:id="rId95"/>
+    <hyperlink ref="D97" r:id="rId96"/>
+    <hyperlink ref="D98" r:id="rId97"/>
+    <hyperlink ref="D99" r:id="rId98"/>
+    <hyperlink ref="D100" r:id="rId99"/>
+    <hyperlink ref="D101" r:id="rId100"/>
+    <hyperlink ref="D102" r:id="rId101"/>
+    <hyperlink ref="D103" r:id="rId102"/>
+    <hyperlink ref="D104" r:id="rId103"/>
+    <hyperlink ref="D105" r:id="rId104"/>
+    <hyperlink ref="D106" r:id="rId105"/>
+    <hyperlink ref="D107" r:id="rId106"/>
+    <hyperlink ref="D108" r:id="rId107"/>
+    <hyperlink ref="D109" r:id="rId108"/>
+    <hyperlink ref="D110" r:id="rId109"/>
+    <hyperlink ref="D111" r:id="rId110"/>
+    <hyperlink ref="D112" r:id="rId111"/>
+    <hyperlink ref="D113" r:id="rId112"/>
+    <hyperlink ref="D114" r:id="rId113"/>
+    <hyperlink ref="D115" r:id="rId114"/>
+    <hyperlink ref="D116" r:id="rId115"/>
+    <hyperlink ref="D117" r:id="rId116"/>
+    <hyperlink ref="D118" r:id="rId117"/>
+    <hyperlink ref="D119" r:id="rId118"/>
+    <hyperlink ref="D120" r:id="rId119"/>
+    <hyperlink ref="D121" r:id="rId120"/>
+    <hyperlink ref="D122" r:id="rId121"/>
+    <hyperlink ref="D123" r:id="rId122"/>
+    <hyperlink ref="D124" r:id="rId123"/>
+    <hyperlink ref="D125" r:id="rId124"/>
+    <hyperlink ref="D126" r:id="rId125"/>
+    <hyperlink ref="D127" r:id="rId126"/>
+    <hyperlink ref="D128" r:id="rId127"/>
+    <hyperlink ref="D129" r:id="rId128"/>
+    <hyperlink ref="D130" r:id="rId129"/>
+    <hyperlink ref="D131" r:id="rId130"/>
+    <hyperlink ref="D132" r:id="rId131"/>
+    <hyperlink ref="D133" r:id="rId132"/>
+    <hyperlink ref="D134" r:id="rId133"/>
+    <hyperlink ref="D135" r:id="rId134"/>
+    <hyperlink ref="D136" r:id="rId135"/>
+    <hyperlink ref="D137" r:id="rId136"/>
+    <hyperlink ref="D138" r:id="rId137"/>
+    <hyperlink ref="D139" r:id="rId138"/>
+    <hyperlink ref="D140" r:id="rId139"/>
+    <hyperlink ref="D141" r:id="rId140"/>
+    <hyperlink ref="D142" r:id="rId141"/>
+    <hyperlink ref="D143" r:id="rId142"/>
+    <hyperlink ref="D144" r:id="rId143"/>
+    <hyperlink ref="D145" r:id="rId144"/>
+    <hyperlink ref="D146" r:id="rId145"/>
+    <hyperlink ref="D147" r:id="rId146"/>
+    <hyperlink ref="D148" r:id="rId147"/>
+    <hyperlink ref="D149" r:id="rId148"/>
+    <hyperlink ref="D150" r:id="rId149"/>
+    <hyperlink ref="D151" r:id="rId150"/>
+    <hyperlink ref="D152" r:id="rId151"/>
+    <hyperlink ref="D153" r:id="rId152"/>
+    <hyperlink ref="D154" r:id="rId153"/>
+    <hyperlink ref="D155" r:id="rId154"/>
+    <hyperlink ref="D156" r:id="rId155"/>
+    <hyperlink ref="D157" r:id="rId156"/>
+    <hyperlink ref="D158" r:id="rId157"/>
+    <hyperlink ref="D159" r:id="rId158"/>
+    <hyperlink ref="D160" r:id="rId159"/>
+    <hyperlink ref="D161" r:id="rId160"/>
+    <hyperlink ref="D162" r:id="rId161"/>
+    <hyperlink ref="D163" r:id="rId162"/>
+    <hyperlink ref="D164" r:id="rId163"/>
+    <hyperlink ref="D165" r:id="rId164"/>
+    <hyperlink ref="D166" r:id="rId165"/>
+    <hyperlink ref="D167" r:id="rId166"/>
+    <hyperlink ref="D168" r:id="rId167"/>
+    <hyperlink ref="D169" r:id="rId168"/>
+    <hyperlink ref="D170" r:id="rId169"/>
+    <hyperlink ref="D171" r:id="rId170"/>
+    <hyperlink ref="D172" r:id="rId171"/>
+    <hyperlink ref="D173" r:id="rId172"/>
+    <hyperlink ref="D174" r:id="rId173"/>
+    <hyperlink ref="D175" r:id="rId174"/>
+    <hyperlink ref="D176" r:id="rId175"/>
+    <hyperlink ref="D177" r:id="rId176"/>
+    <hyperlink ref="D178" r:id="rId177"/>
+    <hyperlink ref="D179" r:id="rId178"/>
+    <hyperlink ref="D180" r:id="rId179"/>
+    <hyperlink ref="D181" r:id="rId180"/>
+    <hyperlink ref="D182" r:id="rId181"/>
+    <hyperlink ref="D183" r:id="rId182"/>
+    <hyperlink ref="D184" r:id="rId183"/>
+    <hyperlink ref="D185" r:id="rId184"/>
+    <hyperlink ref="D186" r:id="rId185"/>
+    <hyperlink ref="D187" r:id="rId186"/>
+    <hyperlink ref="D188" r:id="rId187"/>
+    <hyperlink ref="D189" r:id="rId188"/>
+    <hyperlink ref="D190" r:id="rId189"/>
+    <hyperlink ref="D191" r:id="rId190"/>
+    <hyperlink ref="D192" r:id="rId191"/>
+    <hyperlink ref="D193" r:id="rId192"/>
+    <hyperlink ref="D194" r:id="rId193"/>
+    <hyperlink ref="D195" r:id="rId194"/>
+    <hyperlink ref="D196" r:id="rId195"/>
+    <hyperlink ref="D197" r:id="rId196"/>
+    <hyperlink ref="D198" r:id="rId197"/>
+    <hyperlink ref="D199" r:id="rId198"/>
+    <hyperlink ref="D200" r:id="rId199"/>
+    <hyperlink ref="D201" r:id="rId200"/>
+    <hyperlink ref="D202" r:id="rId201"/>
+    <hyperlink ref="D203" r:id="rId202"/>
+    <hyperlink ref="D204" r:id="rId203"/>
+    <hyperlink ref="D205" r:id="rId204"/>
+    <hyperlink ref="D206" r:id="rId205"/>
+    <hyperlink ref="D207" r:id="rId206"/>
+    <hyperlink ref="D208" r:id="rId207"/>
+    <hyperlink ref="D209" r:id="rId208"/>
+    <hyperlink ref="D210" r:id="rId209"/>
+    <hyperlink ref="D211" r:id="rId210"/>
+    <hyperlink ref="D212" r:id="rId211"/>
+    <hyperlink ref="D213" r:id="rId212"/>
+    <hyperlink ref="D214" r:id="rId213"/>
+    <hyperlink ref="D215" r:id="rId214"/>
+    <hyperlink ref="D216" r:id="rId215"/>
+    <hyperlink ref="D217" r:id="rId216"/>
+    <hyperlink ref="D218" r:id="rId217"/>
+    <hyperlink ref="D219" r:id="rId218"/>
+    <hyperlink ref="D220" r:id="rId219"/>
+    <hyperlink ref="D221" r:id="rId220"/>
+    <hyperlink ref="D222" r:id="rId221"/>
+    <hyperlink ref="D223" r:id="rId222"/>
+    <hyperlink ref="D224" r:id="rId223"/>
+    <hyperlink ref="D225" r:id="rId224"/>
+    <hyperlink ref="D226" r:id="rId225"/>
+    <hyperlink ref="D227" r:id="rId226"/>
+    <hyperlink ref="D228" r:id="rId227"/>
+    <hyperlink ref="D229" r:id="rId228"/>
+    <hyperlink ref="D230" r:id="rId229"/>
+    <hyperlink ref="D231" r:id="rId230"/>
+    <hyperlink ref="D232" r:id="rId231"/>
+    <hyperlink ref="D233" r:id="rId232"/>
+    <hyperlink ref="D234" r:id="rId233"/>
+    <hyperlink ref="D235" r:id="rId234"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ep/ep/export/flourish/Hungary_name_group.xlsx
+++ b/ep/ep/export/flourish/Hungary_name_group.xlsx
@@ -229,13 +229,13 @@
     <t>ALDE</t>
   </si>
   <si>
-    <t>PPE</t>
+    <t>EPP</t>
+  </si>
+  <si>
+    <t>Greens</t>
   </si>
   <si>
     <t>S&amp;D</t>
-  </si>
-  <si>
-    <t>Verts/ALE</t>
   </si>
   <si>
     <t>N/A</t>
@@ -250,10 +250,10 @@
     <t>https://szekelydata.csaladen.es/ep/ep/img/epp.jpg</t>
   </si>
   <si>
-    <t>https://szekelydata.csaladen.es/ep/ep/img/S&amp;D.png</t>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/greens.png</t>
   </si>
   <si>
-    <t>https://szekelydata.csaladen.es/ep/ep/img/greens.png</t>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/S&amp;D.png</t>
   </si>
   <si>
     <t>https://szekelydata.csaladen.es/ep/ep/img/independent.png</t>
@@ -772,23 +772,11 @@
       <c r="D4" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E4">
-        <v>0.979</v>
-      </c>
-      <c r="F4">
-        <v>0.9360000000000001</v>
-      </c>
-      <c r="G4">
-        <v>0.9389999999999999</v>
-      </c>
-      <c r="H4">
-        <v>0.912</v>
-      </c>
       <c r="I4">
-        <v>0.976</v>
+        <v>0.915</v>
       </c>
       <c r="J4">
-        <v>0.959</v>
+        <v>0.796</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -804,11 +792,23 @@
       <c r="D5" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="E5">
+        <v>0.979</v>
+      </c>
+      <c r="F5">
+        <v>0.9360000000000001</v>
+      </c>
+      <c r="G5">
+        <v>0.9389999999999999</v>
+      </c>
+      <c r="H5">
+        <v>0.912</v>
+      </c>
       <c r="I5">
-        <v>0.915</v>
+        <v>0.976</v>
       </c>
       <c r="J5">
-        <v>0.796</v>
+        <v>0.959</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -819,28 +819,28 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O6">
-        <v>0.366</v>
+        <v>0.991</v>
       </c>
       <c r="P6">
-        <v>0.475</v>
+        <v>0.988</v>
       </c>
       <c r="Q6">
-        <v>0.473</v>
+        <v>0.991</v>
       </c>
       <c r="R6">
-        <v>0.466</v>
+        <v>0.993</v>
       </c>
       <c r="S6">
-        <v>0.483</v>
+        <v>0.992</v>
       </c>
       <c r="T6">
-        <v>0.509</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -851,28 +851,28 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O7">
-        <v>0.991</v>
+        <v>0.582</v>
       </c>
       <c r="P7">
-        <v>0.988</v>
+        <v>0.528</v>
       </c>
       <c r="Q7">
-        <v>0.991</v>
+        <v>0.531</v>
       </c>
       <c r="R7">
-        <v>0.993</v>
+        <v>0.541</v>
       </c>
       <c r="S7">
-        <v>0.992</v>
+        <v>0.506</v>
       </c>
       <c r="T7">
-        <v>0.996</v>
+        <v>0.411</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -883,28 +883,28 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O8">
-        <v>0.843</v>
+        <v>0.366</v>
       </c>
       <c r="P8">
-        <v>0.744</v>
+        <v>0.475</v>
       </c>
       <c r="Q8">
-        <v>0.752</v>
+        <v>0.473</v>
       </c>
       <c r="R8">
-        <v>0.724</v>
+        <v>0.466</v>
       </c>
       <c r="S8">
-        <v>0.695</v>
+        <v>0.483</v>
       </c>
       <c r="T8">
-        <v>0.634</v>
+        <v>0.509</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -921,22 +921,22 @@
         <v>79</v>
       </c>
       <c r="O9">
-        <v>0.582</v>
+        <v>0.843</v>
       </c>
       <c r="P9">
-        <v>0.528</v>
+        <v>0.744</v>
       </c>
       <c r="Q9">
-        <v>0.531</v>
+        <v>0.752</v>
       </c>
       <c r="R9">
-        <v>0.541</v>
+        <v>0.724</v>
       </c>
       <c r="S9">
-        <v>0.506</v>
+        <v>0.695</v>
       </c>
       <c r="T9">
-        <v>0.411</v>
+        <v>0.634</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -947,28 +947,28 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O10">
-        <v>0.37</v>
+        <v>0.996</v>
       </c>
       <c r="P10">
-        <v>0.474</v>
+        <v>0.991</v>
       </c>
       <c r="Q10">
-        <v>0.474</v>
+        <v>0.991</v>
       </c>
       <c r="R10">
-        <v>0.461</v>
+        <v>0.992</v>
       </c>
       <c r="S10">
-        <v>0.486</v>
+        <v>0.989</v>
       </c>
       <c r="T10">
-        <v>0.506</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -979,28 +979,28 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O11">
-        <v>0.996</v>
+        <v>0.573</v>
       </c>
       <c r="P11">
-        <v>0.991</v>
+        <v>0.528</v>
       </c>
       <c r="Q11">
-        <v>0.991</v>
+        <v>0.534</v>
       </c>
       <c r="R11">
-        <v>0.992</v>
+        <v>0.57</v>
       </c>
       <c r="S11">
-        <v>0.989</v>
+        <v>0.506</v>
       </c>
       <c r="T11">
-        <v>0.995</v>
+        <v>0.411</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1011,28 +1011,28 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O12">
-        <v>0.845</v>
+        <v>0.37</v>
       </c>
       <c r="P12">
-        <v>0.746</v>
+        <v>0.474</v>
       </c>
       <c r="Q12">
-        <v>0.745</v>
+        <v>0.474</v>
       </c>
       <c r="R12">
-        <v>0.756</v>
+        <v>0.461</v>
       </c>
       <c r="S12">
-        <v>0.6919999999999999</v>
+        <v>0.486</v>
       </c>
       <c r="T12">
-        <v>0.637</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1049,22 +1049,22 @@
         <v>79</v>
       </c>
       <c r="O13">
-        <v>0.573</v>
+        <v>0.845</v>
       </c>
       <c r="P13">
-        <v>0.528</v>
+        <v>0.746</v>
       </c>
       <c r="Q13">
-        <v>0.534</v>
+        <v>0.745</v>
       </c>
       <c r="R13">
-        <v>0.57</v>
+        <v>0.756</v>
       </c>
       <c r="S13">
-        <v>0.506</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="T13">
-        <v>0.411</v>
+        <v>0.637</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1139,43 +1139,58 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="E16">
+        <v>0.97</v>
+      </c>
+      <c r="F16">
+        <v>0.987</v>
+      </c>
+      <c r="G16">
+        <v>0.988</v>
+      </c>
+      <c r="H16">
+        <v>0.963</v>
+      </c>
+      <c r="I16">
+        <v>0.985</v>
       </c>
       <c r="J16">
-        <v>0.445</v>
+        <v>0.984</v>
       </c>
       <c r="K16">
-        <v>0.598</v>
+        <v>0.98</v>
       </c>
       <c r="L16">
-        <v>0.659</v>
+        <v>0.989</v>
       </c>
       <c r="M16">
-        <v>0.855</v>
+        <v>0.989</v>
       </c>
       <c r="N16">
-        <v>0.6820000000000001</v>
+        <v>0.992</v>
       </c>
       <c r="O16">
-        <v>0.53</v>
+        <v>0.982</v>
       </c>
       <c r="P16">
-        <v>0.476</v>
+        <v>0.989</v>
       </c>
       <c r="Q16">
-        <v>0.458</v>
+        <v>0.991</v>
       </c>
       <c r="R16">
-        <v>0.488</v>
+        <v>0.992</v>
       </c>
       <c r="S16">
-        <v>0.548</v>
+        <v>0.991</v>
       </c>
       <c r="T16">
-        <v>0.598</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1186,58 +1201,34 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17">
-        <v>0.97</v>
-      </c>
-      <c r="F17">
-        <v>0.987</v>
-      </c>
-      <c r="G17">
-        <v>0.988</v>
-      </c>
-      <c r="H17">
-        <v>0.963</v>
+        <v>78</v>
       </c>
       <c r="I17">
-        <v>0.985</v>
+        <v>0.913</v>
       </c>
       <c r="J17">
-        <v>0.984</v>
-      </c>
-      <c r="K17">
-        <v>0.98</v>
-      </c>
-      <c r="L17">
-        <v>0.989</v>
-      </c>
-      <c r="M17">
-        <v>0.989</v>
-      </c>
-      <c r="N17">
-        <v>0.992</v>
+        <v>0.917</v>
       </c>
       <c r="O17">
-        <v>0.982</v>
+        <v>0.582</v>
       </c>
       <c r="P17">
-        <v>0.989</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="Q17">
-        <v>0.991</v>
+        <v>0.527</v>
       </c>
       <c r="R17">
-        <v>0.992</v>
+        <v>0.585</v>
       </c>
       <c r="S17">
-        <v>0.991</v>
+        <v>0.436</v>
       </c>
       <c r="T17">
-        <v>0.992</v>
+        <v>0.624</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1248,58 +1239,43 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18">
-        <v>0.62</v>
-      </c>
-      <c r="F18">
-        <v>0.586</v>
-      </c>
-      <c r="G18">
-        <v>0.746</v>
-      </c>
-      <c r="H18">
-        <v>0.608</v>
-      </c>
-      <c r="I18">
-        <v>0.748</v>
+        <v>80</v>
       </c>
       <c r="J18">
-        <v>0.581</v>
+        <v>0.445</v>
       </c>
       <c r="K18">
-        <v>0.728</v>
+        <v>0.598</v>
       </c>
       <c r="L18">
-        <v>0.786</v>
+        <v>0.659</v>
       </c>
       <c r="M18">
-        <v>0.903</v>
+        <v>0.855</v>
       </c>
       <c r="N18">
-        <v>0.806</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="O18">
-        <v>0.761</v>
+        <v>0.53</v>
       </c>
       <c r="P18">
-        <v>0.742</v>
+        <v>0.476</v>
       </c>
       <c r="Q18">
-        <v>0.749</v>
+        <v>0.458</v>
       </c>
       <c r="R18">
-        <v>0.739</v>
+        <v>0.488</v>
       </c>
       <c r="S18">
-        <v>0.663</v>
+        <v>0.548</v>
       </c>
       <c r="T18">
-        <v>0.67</v>
+        <v>0.598</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1315,29 +1291,53 @@
       <c r="D19" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="E19">
+        <v>0.62</v>
+      </c>
+      <c r="F19">
+        <v>0.586</v>
+      </c>
+      <c r="G19">
+        <v>0.746</v>
+      </c>
+      <c r="H19">
+        <v>0.608</v>
+      </c>
       <c r="I19">
-        <v>0.913</v>
+        <v>0.748</v>
       </c>
       <c r="J19">
-        <v>0.917</v>
+        <v>0.581</v>
+      </c>
+      <c r="K19">
+        <v>0.728</v>
+      </c>
+      <c r="L19">
+        <v>0.786</v>
+      </c>
+      <c r="M19">
+        <v>0.903</v>
+      </c>
+      <c r="N19">
+        <v>0.806</v>
       </c>
       <c r="O19">
-        <v>0.582</v>
+        <v>0.761</v>
       </c>
       <c r="P19">
-        <v>0.5590000000000001</v>
+        <v>0.742</v>
       </c>
       <c r="Q19">
-        <v>0.527</v>
+        <v>0.749</v>
       </c>
       <c r="R19">
-        <v>0.585</v>
+        <v>0.739</v>
       </c>
       <c r="S19">
-        <v>0.436</v>
+        <v>0.663</v>
       </c>
       <c r="T19">
-        <v>0.624</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1405,17 +1405,11 @@
       <c r="D22" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G22">
-        <v>0.751</v>
-      </c>
-      <c r="H22">
-        <v>0.609</v>
-      </c>
       <c r="I22">
-        <v>0.771</v>
+        <v>0.885</v>
       </c>
       <c r="J22">
-        <v>0.771</v>
+        <v>0.973</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1431,11 +1425,17 @@
       <c r="D23" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="G23">
+        <v>0.751</v>
+      </c>
+      <c r="H23">
+        <v>0.609</v>
+      </c>
       <c r="I23">
-        <v>0.885</v>
+        <v>0.771</v>
       </c>
       <c r="J23">
-        <v>0.973</v>
+        <v>0.771</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1446,28 +1446,28 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O24">
-        <v>0.572</v>
+        <v>0.577</v>
       </c>
       <c r="P24">
-        <v>0.617</v>
+        <v>0.537</v>
       </c>
       <c r="Q24">
-        <v>0.631</v>
+        <v>0.528</v>
       </c>
       <c r="R24">
-        <v>0.609</v>
+        <v>0.579</v>
       </c>
       <c r="S24">
-        <v>0.517</v>
+        <v>0.499</v>
       </c>
       <c r="T24">
-        <v>0.6870000000000001</v>
+        <v>0.479</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1478,28 +1478,28 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25">
-        <v>0.577</v>
+        <v>1</v>
       </c>
       <c r="P25">
-        <v>0.537</v>
+        <v>0.998</v>
       </c>
       <c r="Q25">
-        <v>0.528</v>
+        <v>0.997</v>
       </c>
       <c r="R25">
-        <v>0.579</v>
+        <v>0.997</v>
       </c>
       <c r="S25">
-        <v>0.499</v>
+        <v>0.995</v>
       </c>
       <c r="T25">
-        <v>0.479</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -1510,28 +1510,28 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O26">
-        <v>0.727</v>
+        <v>0.572</v>
       </c>
       <c r="P26">
-        <v>0.776</v>
+        <v>0.617</v>
       </c>
       <c r="Q26">
-        <v>0.736</v>
+        <v>0.631</v>
       </c>
       <c r="R26">
-        <v>0.824</v>
+        <v>0.609</v>
       </c>
       <c r="S26">
-        <v>0.766</v>
+        <v>0.517</v>
       </c>
       <c r="T26">
-        <v>0.824</v>
+        <v>0.6870000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -1548,22 +1548,22 @@
         <v>79</v>
       </c>
       <c r="O27">
-        <v>1</v>
+        <v>0.727</v>
       </c>
       <c r="P27">
-        <v>0.998</v>
+        <v>0.776</v>
       </c>
       <c r="Q27">
-        <v>0.997</v>
+        <v>0.736</v>
       </c>
       <c r="R27">
-        <v>0.997</v>
+        <v>0.824</v>
       </c>
       <c r="S27">
-        <v>0.995</v>
+        <v>0.766</v>
       </c>
       <c r="T27">
-        <v>0.998</v>
+        <v>0.824</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -1638,28 +1638,43 @@
         <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="E30">
+        <v>0.953</v>
+      </c>
+      <c r="F30">
+        <v>0.981</v>
+      </c>
+      <c r="G30">
+        <v>0.988</v>
+      </c>
+      <c r="H30">
+        <v>0.959</v>
+      </c>
+      <c r="I30">
+        <v>0.982</v>
       </c>
       <c r="J30">
-        <v>0.511</v>
+        <v>0.976</v>
       </c>
       <c r="K30">
-        <v>0.581</v>
+        <v>0.981</v>
       </c>
       <c r="L30">
-        <v>0.672</v>
+        <v>0.991</v>
       </c>
       <c r="M30">
-        <v>0.864</v>
+        <v>0.986</v>
       </c>
       <c r="N30">
-        <v>0.674</v>
+        <v>0.98</v>
       </c>
       <c r="O30">
-        <v>0.592</v>
+        <v>0.977</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -1670,43 +1685,16 @@
         <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31">
-        <v>0.953</v>
-      </c>
-      <c r="F31">
-        <v>0.981</v>
-      </c>
-      <c r="G31">
-        <v>0.988</v>
-      </c>
-      <c r="H31">
-        <v>0.959</v>
+        <v>78</v>
       </c>
       <c r="I31">
-        <v>0.982</v>
+        <v>0.876</v>
       </c>
       <c r="J31">
-        <v>0.976</v>
-      </c>
-      <c r="K31">
-        <v>0.981</v>
-      </c>
-      <c r="L31">
-        <v>0.991</v>
-      </c>
-      <c r="M31">
-        <v>0.986</v>
-      </c>
-      <c r="N31">
-        <v>0.98</v>
-      </c>
-      <c r="O31">
-        <v>0.977</v>
+        <v>0.961</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -1717,43 +1705,28 @@
         <v>25</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E32">
-        <v>0.576</v>
-      </c>
-      <c r="F32">
-        <v>0.584</v>
-      </c>
-      <c r="G32">
-        <v>0.728</v>
-      </c>
-      <c r="H32">
-        <v>0.606</v>
-      </c>
-      <c r="I32">
-        <v>0.763</v>
+        <v>80</v>
       </c>
       <c r="J32">
-        <v>0.738</v>
+        <v>0.511</v>
       </c>
       <c r="K32">
-        <v>0.727</v>
+        <v>0.581</v>
       </c>
       <c r="L32">
-        <v>0.796</v>
+        <v>0.672</v>
       </c>
       <c r="M32">
-        <v>0.8090000000000001</v>
+        <v>0.864</v>
       </c>
       <c r="N32">
-        <v>0.757</v>
+        <v>0.674</v>
       </c>
       <c r="O32">
-        <v>0.749</v>
+        <v>0.592</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -1769,11 +1742,38 @@
       <c r="D33" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="E33">
+        <v>0.576</v>
+      </c>
+      <c r="F33">
+        <v>0.584</v>
+      </c>
+      <c r="G33">
+        <v>0.728</v>
+      </c>
+      <c r="H33">
+        <v>0.606</v>
+      </c>
       <c r="I33">
-        <v>0.876</v>
+        <v>0.763</v>
       </c>
       <c r="J33">
-        <v>0.961</v>
+        <v>0.738</v>
+      </c>
+      <c r="K33">
+        <v>0.727</v>
+      </c>
+      <c r="L33">
+        <v>0.796</v>
+      </c>
+      <c r="M33">
+        <v>0.8090000000000001</v>
+      </c>
+      <c r="N33">
+        <v>0.757</v>
+      </c>
+      <c r="O33">
+        <v>0.749</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -1813,40 +1813,40 @@
         <v>26</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K35">
-        <v>0.979</v>
+        <v>0.535</v>
       </c>
       <c r="L35">
-        <v>0.982</v>
+        <v>0.638</v>
       </c>
       <c r="M35">
-        <v>0.917</v>
+        <v>0.604</v>
       </c>
       <c r="N35">
-        <v>0.915</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="O35">
-        <v>0.896</v>
+        <v>0.434</v>
       </c>
       <c r="P35">
-        <v>0.994</v>
+        <v>0.478</v>
       </c>
       <c r="Q35">
-        <v>0.991</v>
+        <v>0.468</v>
       </c>
       <c r="R35">
-        <v>0.99</v>
+        <v>0.478</v>
       </c>
       <c r="S35">
-        <v>0.988</v>
+        <v>0.483</v>
       </c>
       <c r="T35">
-        <v>0.997</v>
+        <v>0.521</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -1857,40 +1857,28 @@
         <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K36">
-        <v>0.535</v>
-      </c>
-      <c r="L36">
-        <v>0.638</v>
-      </c>
-      <c r="M36">
-        <v>0.604</v>
-      </c>
-      <c r="N36">
-        <v>0.5639999999999999</v>
+        <v>78</v>
       </c>
       <c r="O36">
-        <v>0.434</v>
+        <v>0.573</v>
       </c>
       <c r="P36">
-        <v>0.478</v>
+        <v>0.616</v>
       </c>
       <c r="Q36">
-        <v>0.468</v>
+        <v>0.625</v>
       </c>
       <c r="R36">
-        <v>0.478</v>
+        <v>0.581</v>
       </c>
       <c r="S36">
-        <v>0.483</v>
+        <v>0.518</v>
       </c>
       <c r="T36">
-        <v>0.521</v>
+        <v>0.711</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -1901,40 +1889,40 @@
         <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K37">
-        <v>0.532</v>
+        <v>0.979</v>
       </c>
       <c r="L37">
-        <v>0.631</v>
+        <v>0.982</v>
       </c>
       <c r="M37">
-        <v>0.65</v>
+        <v>0.917</v>
       </c>
       <c r="N37">
-        <v>0.548</v>
+        <v>0.915</v>
       </c>
       <c r="O37">
-        <v>0.578</v>
+        <v>0.896</v>
       </c>
       <c r="P37">
-        <v>0.531</v>
+        <v>0.994</v>
       </c>
       <c r="Q37">
-        <v>0.537</v>
+        <v>0.991</v>
       </c>
       <c r="R37">
-        <v>0.488</v>
+        <v>0.99</v>
       </c>
       <c r="S37">
-        <v>0.489</v>
+        <v>0.988</v>
       </c>
       <c r="T37">
-        <v>0.632</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -1950,23 +1938,35 @@
       <c r="D38" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="K38">
+        <v>0.532</v>
+      </c>
+      <c r="L38">
+        <v>0.631</v>
+      </c>
+      <c r="M38">
+        <v>0.65</v>
+      </c>
+      <c r="N38">
+        <v>0.548</v>
+      </c>
       <c r="O38">
-        <v>0.573</v>
+        <v>0.578</v>
       </c>
       <c r="P38">
-        <v>0.616</v>
+        <v>0.531</v>
       </c>
       <c r="Q38">
-        <v>0.625</v>
+        <v>0.537</v>
       </c>
       <c r="R38">
-        <v>0.581</v>
+        <v>0.488</v>
       </c>
       <c r="S38">
-        <v>0.518</v>
+        <v>0.489</v>
       </c>
       <c r="T38">
-        <v>0.711</v>
+        <v>0.632</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -1977,28 +1977,28 @@
         <v>27</v>
       </c>
       <c r="C39" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O39">
-        <v>0.406</v>
+        <v>0.885</v>
       </c>
       <c r="P39">
-        <v>0.52</v>
+        <v>0.753</v>
       </c>
       <c r="Q39">
-        <v>0.538</v>
+        <v>0.747</v>
       </c>
       <c r="R39">
-        <v>0.521</v>
+        <v>0.75</v>
       </c>
       <c r="S39">
-        <v>0.458</v>
+        <v>0.701</v>
       </c>
       <c r="T39">
-        <v>0.659</v>
+        <v>0.613</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -2009,28 +2009,28 @@
         <v>27</v>
       </c>
       <c r="C40" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O40">
-        <v>0.885</v>
+        <v>0.722</v>
       </c>
       <c r="P40">
+        <v>0.764</v>
+      </c>
+      <c r="Q40">
         <v>0.753</v>
       </c>
-      <c r="Q40">
-        <v>0.747</v>
-      </c>
       <c r="R40">
-        <v>0.75</v>
+        <v>0.823</v>
       </c>
       <c r="S40">
-        <v>0.701</v>
+        <v>0.772</v>
       </c>
       <c r="T40">
-        <v>0.613</v>
+        <v>0.794</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -2041,28 +2041,28 @@
         <v>27</v>
       </c>
       <c r="C41" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O41">
-        <v>0.989</v>
+        <v>0.406</v>
       </c>
       <c r="P41">
-        <v>0.985</v>
+        <v>0.52</v>
       </c>
       <c r="Q41">
-        <v>0.972</v>
+        <v>0.538</v>
       </c>
       <c r="R41">
-        <v>0.982</v>
+        <v>0.521</v>
       </c>
       <c r="S41">
-        <v>0.962</v>
+        <v>0.458</v>
       </c>
       <c r="T41">
-        <v>0.978</v>
+        <v>0.659</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -2079,22 +2079,22 @@
         <v>79</v>
       </c>
       <c r="O42">
-        <v>0.722</v>
+        <v>0.989</v>
       </c>
       <c r="P42">
-        <v>0.764</v>
+        <v>0.985</v>
       </c>
       <c r="Q42">
-        <v>0.753</v>
+        <v>0.972</v>
       </c>
       <c r="R42">
-        <v>0.823</v>
+        <v>0.982</v>
       </c>
       <c r="S42">
-        <v>0.772</v>
+        <v>0.962</v>
       </c>
       <c r="T42">
-        <v>0.794</v>
+        <v>0.978</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -2169,28 +2169,43 @@
         <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="E45">
+        <v>0.611</v>
+      </c>
+      <c r="F45">
+        <v>0.547</v>
+      </c>
+      <c r="G45">
+        <v>0.705</v>
+      </c>
+      <c r="H45">
+        <v>0.617</v>
+      </c>
+      <c r="I45">
+        <v>0.747</v>
       </c>
       <c r="J45">
-        <v>0.432</v>
+        <v>0.732</v>
       </c>
       <c r="K45">
-        <v>0.584</v>
+        <v>0.747</v>
       </c>
       <c r="L45">
-        <v>0.68</v>
+        <v>0.79</v>
       </c>
       <c r="M45">
-        <v>0.76</v>
+        <v>0.827</v>
       </c>
       <c r="N45">
-        <v>0.649</v>
+        <v>0.727</v>
       </c>
       <c r="O45">
-        <v>0.676</v>
+        <v>0.759</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -2201,43 +2216,16 @@
         <v>28</v>
       </c>
       <c r="C46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E46">
-        <v>0.611</v>
-      </c>
-      <c r="F46">
-        <v>0.547</v>
-      </c>
-      <c r="G46">
-        <v>0.705</v>
-      </c>
-      <c r="H46">
-        <v>0.617</v>
+        <v>78</v>
       </c>
       <c r="I46">
-        <v>0.747</v>
+        <v>0.832</v>
       </c>
       <c r="J46">
-        <v>0.732</v>
-      </c>
-      <c r="K46">
-        <v>0.747</v>
-      </c>
-      <c r="L46">
-        <v>0.79</v>
-      </c>
-      <c r="M46">
-        <v>0.827</v>
-      </c>
-      <c r="N46">
-        <v>0.727</v>
-      </c>
-      <c r="O46">
-        <v>0.759</v>
+        <v>0.8159999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:20">
@@ -2248,43 +2236,28 @@
         <v>28</v>
       </c>
       <c r="C47" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E47">
-        <v>0.982</v>
-      </c>
-      <c r="F47">
-        <v>0.9320000000000001</v>
-      </c>
-      <c r="G47">
-        <v>0.922</v>
-      </c>
-      <c r="H47">
-        <v>0.929</v>
-      </c>
-      <c r="I47">
-        <v>0.944</v>
+        <v>80</v>
       </c>
       <c r="J47">
-        <v>0.962</v>
+        <v>0.432</v>
       </c>
       <c r="K47">
-        <v>0.966</v>
+        <v>0.584</v>
       </c>
       <c r="L47">
-        <v>0.965</v>
+        <v>0.68</v>
       </c>
       <c r="M47">
-        <v>0.964</v>
+        <v>0.76</v>
       </c>
       <c r="N47">
-        <v>0.9340000000000001</v>
+        <v>0.649</v>
       </c>
       <c r="O47">
-        <v>0.967</v>
+        <v>0.676</v>
       </c>
     </row>
     <row r="48" spans="1:20">
@@ -2300,11 +2273,38 @@
       <c r="D48" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="E48">
+        <v>0.982</v>
+      </c>
+      <c r="F48">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="G48">
+        <v>0.922</v>
+      </c>
+      <c r="H48">
+        <v>0.929</v>
+      </c>
       <c r="I48">
-        <v>0.832</v>
+        <v>0.944</v>
       </c>
       <c r="J48">
-        <v>0.8159999999999999</v>
+        <v>0.962</v>
+      </c>
+      <c r="K48">
+        <v>0.966</v>
+      </c>
+      <c r="L48">
+        <v>0.965</v>
+      </c>
+      <c r="M48">
+        <v>0.964</v>
+      </c>
+      <c r="N48">
+        <v>0.9340000000000001</v>
+      </c>
+      <c r="O48">
+        <v>0.967</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -2379,28 +2379,43 @@
         <v>29</v>
       </c>
       <c r="C51" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="E51">
+        <v>0.951</v>
+      </c>
+      <c r="F51">
+        <v>0.982</v>
+      </c>
+      <c r="G51">
+        <v>0.983</v>
+      </c>
+      <c r="H51">
+        <v>0.9379999999999999</v>
+      </c>
+      <c r="I51">
+        <v>0.966</v>
       </c>
       <c r="J51">
-        <v>0.511</v>
+        <v>0.979</v>
       </c>
       <c r="K51">
-        <v>0.579</v>
+        <v>0.976</v>
       </c>
       <c r="L51">
-        <v>0.666</v>
+        <v>0.984</v>
       </c>
       <c r="M51">
-        <v>0.84</v>
+        <v>0.987</v>
       </c>
       <c r="N51">
-        <v>0.653</v>
+        <v>0.978</v>
       </c>
       <c r="O51">
-        <v>0.608</v>
+        <v>0.971</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -2411,43 +2426,16 @@
         <v>29</v>
       </c>
       <c r="C52" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E52">
-        <v>0.951</v>
-      </c>
-      <c r="F52">
-        <v>0.982</v>
-      </c>
-      <c r="G52">
-        <v>0.983</v>
-      </c>
-      <c r="H52">
-        <v>0.9379999999999999</v>
+        <v>78</v>
       </c>
       <c r="I52">
-        <v>0.966</v>
+        <v>0.87</v>
       </c>
       <c r="J52">
-        <v>0.979</v>
-      </c>
-      <c r="K52">
-        <v>0.976</v>
-      </c>
-      <c r="L52">
-        <v>0.984</v>
-      </c>
-      <c r="M52">
-        <v>0.987</v>
-      </c>
-      <c r="N52">
-        <v>0.978</v>
-      </c>
-      <c r="O52">
-        <v>0.971</v>
+        <v>0.961</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -2458,43 +2446,28 @@
         <v>29</v>
       </c>
       <c r="C53" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E53">
-        <v>0.584</v>
-      </c>
-      <c r="F53">
-        <v>0.573</v>
-      </c>
-      <c r="G53">
-        <v>0.763</v>
-      </c>
-      <c r="H53">
-        <v>0.61</v>
-      </c>
-      <c r="I53">
-        <v>0.755</v>
+        <v>80</v>
       </c>
       <c r="J53">
-        <v>0.753</v>
+        <v>0.511</v>
       </c>
       <c r="K53">
-        <v>0.711</v>
+        <v>0.579</v>
       </c>
       <c r="L53">
-        <v>0.795</v>
+        <v>0.666</v>
       </c>
       <c r="M53">
-        <v>0.8070000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="N53">
-        <v>0.751</v>
+        <v>0.653</v>
       </c>
       <c r="O53">
-        <v>0.76</v>
+        <v>0.608</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -2510,11 +2483,38 @@
       <c r="D54" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="E54">
+        <v>0.584</v>
+      </c>
+      <c r="F54">
+        <v>0.573</v>
+      </c>
+      <c r="G54">
+        <v>0.763</v>
+      </c>
+      <c r="H54">
+        <v>0.61</v>
+      </c>
       <c r="I54">
-        <v>0.87</v>
+        <v>0.755</v>
       </c>
       <c r="J54">
-        <v>0.961</v>
+        <v>0.753</v>
+      </c>
+      <c r="K54">
+        <v>0.711</v>
+      </c>
+      <c r="L54">
+        <v>0.795</v>
+      </c>
+      <c r="M54">
+        <v>0.8070000000000001</v>
+      </c>
+      <c r="N54">
+        <v>0.751</v>
+      </c>
+      <c r="O54">
+        <v>0.76</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -2557,28 +2557,28 @@
         <v>30</v>
       </c>
       <c r="C56" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J56">
-        <v>1</v>
+        <v>0.515</v>
       </c>
       <c r="K56">
-        <v>0.978</v>
+        <v>0.614</v>
       </c>
       <c r="L56">
-        <v>0.979</v>
+        <v>0.65</v>
       </c>
       <c r="M56">
-        <v>0.912</v>
+        <v>0.988</v>
       </c>
       <c r="N56">
-        <v>0.78</v>
+        <v>0.959</v>
       </c>
       <c r="O56">
-        <v>0.707</v>
+        <v>0.9409999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -2589,28 +2589,28 @@
         <v>30</v>
       </c>
       <c r="C57" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J57">
-        <v>0.515</v>
+        <v>1</v>
       </c>
       <c r="K57">
-        <v>0.614</v>
+        <v>0.978</v>
       </c>
       <c r="L57">
-        <v>0.65</v>
+        <v>0.979</v>
       </c>
       <c r="M57">
-        <v>0.988</v>
+        <v>0.912</v>
       </c>
       <c r="N57">
-        <v>0.959</v>
+        <v>0.78</v>
       </c>
       <c r="O57">
-        <v>0.9409999999999999</v>
+        <v>0.707</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -2621,10 +2621,10 @@
         <v>30</v>
       </c>
       <c r="C58" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J58">
         <v>0.425</v>
@@ -2717,28 +2717,43 @@
         <v>31</v>
       </c>
       <c r="C61" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="E61">
+        <v>0.597</v>
+      </c>
+      <c r="F61">
+        <v>0.657</v>
+      </c>
+      <c r="G61">
+        <v>0.716</v>
+      </c>
+      <c r="H61">
+        <v>0.632</v>
+      </c>
+      <c r="I61">
+        <v>0.654</v>
       </c>
       <c r="J61">
-        <v>0.416</v>
+        <v>0.741</v>
       </c>
       <c r="K61">
-        <v>0.616</v>
+        <v>0.705</v>
       </c>
       <c r="L61">
-        <v>0.656</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="M61">
-        <v>0.767</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="N61">
-        <v>0.636</v>
+        <v>0.781</v>
       </c>
       <c r="O61">
-        <v>0.681</v>
+        <v>0.738</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -2749,43 +2764,16 @@
         <v>31</v>
       </c>
       <c r="C62" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E62">
-        <v>0.597</v>
-      </c>
-      <c r="F62">
-        <v>0.657</v>
-      </c>
-      <c r="G62">
-        <v>0.716</v>
-      </c>
-      <c r="H62">
-        <v>0.632</v>
+        <v>78</v>
       </c>
       <c r="I62">
-        <v>0.654</v>
+        <v>0.641</v>
       </c>
       <c r="J62">
-        <v>0.741</v>
-      </c>
-      <c r="K62">
-        <v>0.705</v>
-      </c>
-      <c r="L62">
-        <v>0.8070000000000001</v>
-      </c>
-      <c r="M62">
-        <v>0.8129999999999999</v>
-      </c>
-      <c r="N62">
-        <v>0.781</v>
-      </c>
-      <c r="O62">
-        <v>0.738</v>
+        <v>0.889</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -2796,43 +2784,28 @@
         <v>31</v>
       </c>
       <c r="C63" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E63">
-        <v>0.981</v>
-      </c>
-      <c r="F63">
-        <v>0.827</v>
-      </c>
-      <c r="G63">
-        <v>0.9370000000000001</v>
-      </c>
-      <c r="H63">
-        <v>0.904</v>
-      </c>
-      <c r="I63">
-        <v>0.9419999999999999</v>
+        <v>80</v>
       </c>
       <c r="J63">
-        <v>0.965</v>
+        <v>0.416</v>
       </c>
       <c r="K63">
-        <v>0.974</v>
+        <v>0.616</v>
       </c>
       <c r="L63">
-        <v>0.973</v>
+        <v>0.656</v>
       </c>
       <c r="M63">
-        <v>0.965</v>
+        <v>0.767</v>
       </c>
       <c r="N63">
-        <v>0.96</v>
+        <v>0.636</v>
       </c>
       <c r="O63">
-        <v>0.969</v>
+        <v>0.681</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -2848,11 +2821,38 @@
       <c r="D64" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="E64">
+        <v>0.981</v>
+      </c>
+      <c r="F64">
+        <v>0.827</v>
+      </c>
+      <c r="G64">
+        <v>0.9370000000000001</v>
+      </c>
+      <c r="H64">
+        <v>0.904</v>
+      </c>
       <c r="I64">
-        <v>0.641</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="J64">
-        <v>0.889</v>
+        <v>0.965</v>
+      </c>
+      <c r="K64">
+        <v>0.974</v>
+      </c>
+      <c r="L64">
+        <v>0.973</v>
+      </c>
+      <c r="M64">
+        <v>0.965</v>
+      </c>
+      <c r="N64">
+        <v>0.96</v>
+      </c>
+      <c r="O64">
+        <v>0.969</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -2880,13 +2880,13 @@
         <v>32</v>
       </c>
       <c r="C66" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J66">
-        <v>0.5570000000000001</v>
+        <v>0.985</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -2897,13 +2897,13 @@
         <v>32</v>
       </c>
       <c r="C67" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J67">
-        <v>0.985</v>
+        <v>0.5570000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -2914,10 +2914,10 @@
         <v>32</v>
       </c>
       <c r="C68" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J68">
         <v>0.655</v>
@@ -2954,19 +2954,19 @@
         <v>33</v>
       </c>
       <c r="C70" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M70">
-        <v>0.837</v>
+        <v>0.987</v>
       </c>
       <c r="N70">
-        <v>0.674</v>
+        <v>0.983</v>
       </c>
       <c r="O70">
-        <v>0.611</v>
+        <v>0.978</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -2977,19 +2977,19 @@
         <v>33</v>
       </c>
       <c r="C71" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M71">
-        <v>0.987</v>
+        <v>0.837</v>
       </c>
       <c r="N71">
-        <v>0.983</v>
+        <v>0.674</v>
       </c>
       <c r="O71">
-        <v>0.978</v>
+        <v>0.611</v>
       </c>
     </row>
     <row r="72" spans="1:15">
@@ -3000,10 +3000,10 @@
         <v>33</v>
       </c>
       <c r="C72" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M72">
         <v>0.9</v>
@@ -3086,20 +3086,11 @@
       <c r="D75" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F75">
-        <v>0.585</v>
-      </c>
-      <c r="G75">
-        <v>0.744</v>
-      </c>
-      <c r="H75">
-        <v>0.622</v>
-      </c>
       <c r="I75">
-        <v>0.798</v>
+        <v>0.858</v>
       </c>
       <c r="J75">
-        <v>0.765</v>
+        <v>0.967</v>
       </c>
     </row>
     <row r="76" spans="1:15">
@@ -3115,11 +3106,20 @@
       <c r="D76" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="F76">
+        <v>0.585</v>
+      </c>
+      <c r="G76">
+        <v>0.744</v>
+      </c>
+      <c r="H76">
+        <v>0.622</v>
+      </c>
       <c r="I76">
-        <v>0.858</v>
+        <v>0.798</v>
       </c>
       <c r="J76">
-        <v>0.967</v>
+        <v>0.765</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -3199,23 +3199,11 @@
       <c r="D79" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E79">
-        <v>0.974</v>
-      </c>
-      <c r="F79">
-        <v>0.908</v>
-      </c>
-      <c r="G79">
-        <v>0.96</v>
-      </c>
-      <c r="H79">
-        <v>0.923</v>
-      </c>
       <c r="I79">
-        <v>0.985</v>
+        <v>0.93</v>
       </c>
       <c r="J79">
-        <v>0.9409999999999999</v>
+        <v>0.6909999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -3231,11 +3219,23 @@
       <c r="D80" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="E80">
+        <v>0.974</v>
+      </c>
+      <c r="F80">
+        <v>0.908</v>
+      </c>
+      <c r="G80">
+        <v>0.96</v>
+      </c>
+      <c r="H80">
+        <v>0.923</v>
+      </c>
       <c r="I80">
-        <v>0.93</v>
+        <v>0.985</v>
       </c>
       <c r="J80">
-        <v>0.6909999999999999</v>
+        <v>0.9409999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:20">
@@ -3246,28 +3246,28 @@
         <v>36</v>
       </c>
       <c r="C81" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O81">
-        <v>0.375</v>
+        <v>0.986</v>
       </c>
       <c r="P81">
-        <v>0.473</v>
+        <v>0.985</v>
       </c>
       <c r="Q81">
-        <v>0.459</v>
+        <v>0.983</v>
       </c>
       <c r="R81">
-        <v>0.485</v>
+        <v>0.983</v>
       </c>
       <c r="S81">
-        <v>0.482</v>
+        <v>0.984</v>
       </c>
       <c r="T81">
-        <v>0.581</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="82" spans="1:20">
@@ -3278,28 +3278,28 @@
         <v>36</v>
       </c>
       <c r="C82" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O82">
-        <v>0.986</v>
+        <v>0.572</v>
       </c>
       <c r="P82">
-        <v>0.985</v>
+        <v>0.524</v>
       </c>
       <c r="Q82">
-        <v>0.983</v>
+        <v>0.534</v>
       </c>
       <c r="R82">
-        <v>0.983</v>
+        <v>0.604</v>
       </c>
       <c r="S82">
-        <v>0.984</v>
+        <v>0.513</v>
       </c>
       <c r="T82">
-        <v>0.988</v>
+        <v>0.606</v>
       </c>
     </row>
     <row r="83" spans="1:20">
@@ -3310,28 +3310,28 @@
         <v>36</v>
       </c>
       <c r="C83" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O83">
-        <v>0.841</v>
+        <v>0.375</v>
       </c>
       <c r="P83">
-        <v>0.745</v>
+        <v>0.473</v>
       </c>
       <c r="Q83">
-        <v>0.749</v>
+        <v>0.459</v>
       </c>
       <c r="R83">
-        <v>0.752</v>
+        <v>0.485</v>
       </c>
       <c r="S83">
-        <v>0.7</v>
+        <v>0.482</v>
       </c>
       <c r="T83">
-        <v>0.663</v>
+        <v>0.581</v>
       </c>
     </row>
     <row r="84" spans="1:20">
@@ -3348,22 +3348,22 @@
         <v>79</v>
       </c>
       <c r="O84">
-        <v>0.572</v>
+        <v>0.841</v>
       </c>
       <c r="P84">
-        <v>0.524</v>
+        <v>0.745</v>
       </c>
       <c r="Q84">
-        <v>0.534</v>
+        <v>0.749</v>
       </c>
       <c r="R84">
-        <v>0.604</v>
+        <v>0.752</v>
       </c>
       <c r="S84">
-        <v>0.513</v>
+        <v>0.7</v>
       </c>
       <c r="T84">
-        <v>0.606</v>
+        <v>0.663</v>
       </c>
     </row>
     <row r="85" spans="1:20">
@@ -3438,43 +3438,58 @@
         <v>37</v>
       </c>
       <c r="C87" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="E87">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="F87">
+        <v>0.985</v>
+      </c>
+      <c r="G87">
+        <v>0.986</v>
+      </c>
+      <c r="H87">
+        <v>0.966</v>
+      </c>
+      <c r="I87">
+        <v>0.981</v>
       </c>
       <c r="J87">
-        <v>0.505</v>
+        <v>0.985</v>
       </c>
       <c r="K87">
-        <v>0.585</v>
+        <v>0.981</v>
       </c>
       <c r="L87">
-        <v>0.657</v>
+        <v>0.988</v>
       </c>
       <c r="M87">
-        <v>0.842</v>
+        <v>0.99</v>
       </c>
       <c r="N87">
-        <v>0.654</v>
+        <v>0.978</v>
       </c>
       <c r="O87">
-        <v>0.553</v>
+        <v>0.981</v>
       </c>
       <c r="P87">
-        <v>0.47</v>
+        <v>0.981</v>
       </c>
       <c r="Q87">
-        <v>0.469</v>
+        <v>0.99</v>
       </c>
       <c r="R87">
-        <v>0.467</v>
+        <v>0.99</v>
       </c>
       <c r="S87">
-        <v>0.475</v>
+        <v>0.988</v>
       </c>
       <c r="T87">
-        <v>0.517</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="88" spans="1:20">
@@ -3485,58 +3500,34 @@
         <v>37</v>
       </c>
       <c r="C88" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E88">
-        <v>0.9350000000000001</v>
-      </c>
-      <c r="F88">
-        <v>0.985</v>
-      </c>
-      <c r="G88">
-        <v>0.986</v>
-      </c>
-      <c r="H88">
-        <v>0.966</v>
+        <v>78</v>
       </c>
       <c r="I88">
-        <v>0.981</v>
+        <v>0.876</v>
       </c>
       <c r="J88">
-        <v>0.985</v>
-      </c>
-      <c r="K88">
-        <v>0.981</v>
-      </c>
-      <c r="L88">
-        <v>0.988</v>
-      </c>
-      <c r="M88">
-        <v>0.99</v>
-      </c>
-      <c r="N88">
-        <v>0.978</v>
+        <v>0.947</v>
       </c>
       <c r="O88">
-        <v>0.981</v>
+        <v>0.581</v>
       </c>
       <c r="P88">
-        <v>0.981</v>
+        <v>0.536</v>
       </c>
       <c r="Q88">
-        <v>0.99</v>
+        <v>0.534</v>
       </c>
       <c r="R88">
-        <v>0.99</v>
+        <v>0.547</v>
       </c>
       <c r="S88">
-        <v>0.988</v>
+        <v>0.507</v>
       </c>
       <c r="T88">
-        <v>0.992</v>
+        <v>0.424</v>
       </c>
     </row>
     <row r="89" spans="1:20">
@@ -3547,58 +3538,43 @@
         <v>37</v>
       </c>
       <c r="C89" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E89">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="F89">
-        <v>0.606</v>
-      </c>
-      <c r="G89">
-        <v>0.745</v>
-      </c>
-      <c r="H89">
-        <v>0.603</v>
-      </c>
-      <c r="I89">
-        <v>0.766</v>
+        <v>80</v>
       </c>
       <c r="J89">
-        <v>0.747</v>
+        <v>0.505</v>
       </c>
       <c r="K89">
-        <v>0.733</v>
+        <v>0.585</v>
       </c>
       <c r="L89">
-        <v>0.8080000000000001</v>
+        <v>0.657</v>
       </c>
       <c r="M89">
-        <v>0.8070000000000001</v>
+        <v>0.842</v>
       </c>
       <c r="N89">
-        <v>0.764</v>
+        <v>0.654</v>
       </c>
       <c r="O89">
-        <v>0.771</v>
+        <v>0.553</v>
       </c>
       <c r="P89">
-        <v>0.758</v>
+        <v>0.47</v>
       </c>
       <c r="Q89">
-        <v>0.749</v>
+        <v>0.469</v>
       </c>
       <c r="R89">
-        <v>0.725</v>
+        <v>0.467</v>
       </c>
       <c r="S89">
-        <v>0.698</v>
+        <v>0.475</v>
       </c>
       <c r="T89">
-        <v>0.641</v>
+        <v>0.517</v>
       </c>
     </row>
     <row r="90" spans="1:20">
@@ -3614,29 +3590,53 @@
       <c r="D90" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="E90">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F90">
+        <v>0.606</v>
+      </c>
+      <c r="G90">
+        <v>0.745</v>
+      </c>
+      <c r="H90">
+        <v>0.603</v>
+      </c>
       <c r="I90">
-        <v>0.876</v>
+        <v>0.766</v>
       </c>
       <c r="J90">
-        <v>0.947</v>
+        <v>0.747</v>
+      </c>
+      <c r="K90">
+        <v>0.733</v>
+      </c>
+      <c r="L90">
+        <v>0.8080000000000001</v>
+      </c>
+      <c r="M90">
+        <v>0.8070000000000001</v>
+      </c>
+      <c r="N90">
+        <v>0.764</v>
       </c>
       <c r="O90">
-        <v>0.581</v>
+        <v>0.771</v>
       </c>
       <c r="P90">
-        <v>0.536</v>
+        <v>0.758</v>
       </c>
       <c r="Q90">
-        <v>0.534</v>
+        <v>0.749</v>
       </c>
       <c r="R90">
-        <v>0.547</v>
+        <v>0.725</v>
       </c>
       <c r="S90">
-        <v>0.507</v>
+        <v>0.698</v>
       </c>
       <c r="T90">
-        <v>0.424</v>
+        <v>0.641</v>
       </c>
     </row>
     <row r="91" spans="1:20">
@@ -3681,10 +3681,10 @@
         <v>38</v>
       </c>
       <c r="C93" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E93">
         <v>0.9350000000000001</v>
@@ -3767,23 +3767,11 @@
       <c r="D96" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E96">
-        <v>0.978</v>
-      </c>
-      <c r="F96">
-        <v>0.958</v>
-      </c>
-      <c r="G96">
-        <v>0.9379999999999999</v>
-      </c>
-      <c r="H96">
-        <v>0.93</v>
-      </c>
       <c r="I96">
-        <v>0.987</v>
+        <v>0.949</v>
       </c>
       <c r="J96">
-        <v>0.959</v>
+        <v>0.803</v>
       </c>
     </row>
     <row r="97" spans="1:20">
@@ -3799,11 +3787,23 @@
       <c r="D97" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="E97">
+        <v>0.978</v>
+      </c>
+      <c r="F97">
+        <v>0.958</v>
+      </c>
+      <c r="G97">
+        <v>0.9379999999999999</v>
+      </c>
+      <c r="H97">
+        <v>0.93</v>
+      </c>
       <c r="I97">
-        <v>0.949</v>
+        <v>0.987</v>
       </c>
       <c r="J97">
-        <v>0.803</v>
+        <v>0.959</v>
       </c>
     </row>
     <row r="98" spans="1:20">
@@ -3843,34 +3843,34 @@
         <v>40</v>
       </c>
       <c r="C99" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K99">
-        <v>0.598</v>
+        <v>0.983</v>
       </c>
       <c r="L99">
-        <v>0.68</v>
+        <v>0.99</v>
       </c>
       <c r="M99">
-        <v>0.859</v>
+        <v>0.982</v>
       </c>
       <c r="N99">
-        <v>0.666</v>
+        <v>0.98</v>
       </c>
       <c r="O99">
-        <v>0.544</v>
+        <v>0.979</v>
       </c>
       <c r="P99">
-        <v>0.474</v>
+        <v>0.988</v>
       </c>
       <c r="Q99">
-        <v>0.462</v>
+        <v>0.983</v>
       </c>
       <c r="R99">
-        <v>0.46</v>
+        <v>0.991</v>
       </c>
     </row>
     <row r="100" spans="1:20">
@@ -3881,34 +3881,22 @@
         <v>40</v>
       </c>
       <c r="C100" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K100">
-        <v>0.983</v>
-      </c>
-      <c r="L100">
-        <v>0.99</v>
-      </c>
-      <c r="M100">
-        <v>0.982</v>
-      </c>
-      <c r="N100">
-        <v>0.98</v>
+        <v>78</v>
       </c>
       <c r="O100">
-        <v>0.979</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="P100">
-        <v>0.988</v>
+        <v>0.525</v>
       </c>
       <c r="Q100">
-        <v>0.983</v>
+        <v>0.523</v>
       </c>
       <c r="R100">
-        <v>0.991</v>
+        <v>0.604</v>
       </c>
     </row>
     <row r="101" spans="1:20">
@@ -3919,34 +3907,34 @@
         <v>40</v>
       </c>
       <c r="C101" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K101">
-        <v>0.726</v>
+        <v>0.598</v>
       </c>
       <c r="L101">
-        <v>0.782</v>
+        <v>0.68</v>
       </c>
       <c r="M101">
-        <v>0.8149999999999999</v>
+        <v>0.859</v>
       </c>
       <c r="N101">
-        <v>0.761</v>
+        <v>0.666</v>
       </c>
       <c r="O101">
-        <v>0.758</v>
+        <v>0.544</v>
       </c>
       <c r="P101">
-        <v>0.746</v>
+        <v>0.474</v>
       </c>
       <c r="Q101">
-        <v>0.748</v>
+        <v>0.462</v>
       </c>
       <c r="R101">
-        <v>0.763</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="102" spans="1:20">
@@ -3962,17 +3950,29 @@
       <c r="D102" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="K102">
+        <v>0.726</v>
+      </c>
+      <c r="L102">
+        <v>0.782</v>
+      </c>
+      <c r="M102">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="N102">
+        <v>0.761</v>
+      </c>
       <c r="O102">
-        <v>0.5639999999999999</v>
+        <v>0.758</v>
       </c>
       <c r="P102">
-        <v>0.525</v>
+        <v>0.746</v>
       </c>
       <c r="Q102">
-        <v>0.523</v>
+        <v>0.748</v>
       </c>
       <c r="R102">
-        <v>0.604</v>
+        <v>0.763</v>
       </c>
     </row>
     <row r="103" spans="1:20">
@@ -4017,10 +4017,10 @@
         <v>41</v>
       </c>
       <c r="C105" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E105">
         <v>0.61</v>
@@ -4103,23 +4103,11 @@
       <c r="D108" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E108">
-        <v>0.772</v>
-      </c>
-      <c r="F108">
-        <v>0.6840000000000001</v>
-      </c>
-      <c r="G108">
-        <v>0.8179999999999999</v>
-      </c>
-      <c r="H108">
-        <v>0.727</v>
-      </c>
       <c r="I108">
-        <v>0.781</v>
+        <v>0.631</v>
       </c>
       <c r="J108">
-        <v>0.769</v>
+        <v>0.826</v>
       </c>
     </row>
     <row r="109" spans="1:20">
@@ -4135,11 +4123,23 @@
       <c r="D109" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="E109">
+        <v>0.772</v>
+      </c>
+      <c r="F109">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="G109">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="H109">
+        <v>0.727</v>
+      </c>
       <c r="I109">
-        <v>0.631</v>
+        <v>0.781</v>
       </c>
       <c r="J109">
-        <v>0.826</v>
+        <v>0.769</v>
       </c>
     </row>
     <row r="110" spans="1:20">
@@ -4150,28 +4150,28 @@
         <v>43</v>
       </c>
       <c r="C110" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O110">
-        <v>0.468</v>
+        <v>0.819</v>
       </c>
       <c r="P110">
-        <v>0.523</v>
+        <v>0.745</v>
       </c>
       <c r="Q110">
-        <v>0.531</v>
+        <v>0.755</v>
       </c>
       <c r="R110">
-        <v>0.491</v>
+        <v>0.751</v>
       </c>
       <c r="S110">
-        <v>0.521</v>
+        <v>0.726</v>
       </c>
       <c r="T110">
-        <v>0.601</v>
+        <v>0.725</v>
       </c>
     </row>
     <row r="111" spans="1:20">
@@ -4182,28 +4182,28 @@
         <v>43</v>
       </c>
       <c r="C111" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O111">
-        <v>0.819</v>
+        <v>0.754</v>
       </c>
       <c r="P111">
+        <v>0.76</v>
+      </c>
+      <c r="Q111">
         <v>0.745</v>
       </c>
-      <c r="Q111">
-        <v>0.755</v>
-      </c>
       <c r="R111">
-        <v>0.751</v>
+        <v>0.806</v>
       </c>
       <c r="S111">
-        <v>0.726</v>
+        <v>0.738</v>
       </c>
       <c r="T111">
-        <v>0.725</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="112" spans="1:20">
@@ -4214,28 +4214,28 @@
         <v>43</v>
       </c>
       <c r="C112" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O112">
-        <v>0.987</v>
+        <v>0.468</v>
       </c>
       <c r="P112">
-        <v>0.984</v>
+        <v>0.523</v>
       </c>
       <c r="Q112">
-        <v>0.976</v>
+        <v>0.531</v>
       </c>
       <c r="R112">
-        <v>0.981</v>
+        <v>0.491</v>
       </c>
       <c r="S112">
-        <v>0.945</v>
+        <v>0.521</v>
       </c>
       <c r="T112">
-        <v>0.96</v>
+        <v>0.601</v>
       </c>
     </row>
     <row r="113" spans="1:20">
@@ -4252,22 +4252,22 @@
         <v>79</v>
       </c>
       <c r="O113">
-        <v>0.754</v>
+        <v>0.987</v>
       </c>
       <c r="P113">
-        <v>0.76</v>
+        <v>0.984</v>
       </c>
       <c r="Q113">
-        <v>0.745</v>
+        <v>0.976</v>
       </c>
       <c r="R113">
-        <v>0.806</v>
+        <v>0.981</v>
       </c>
       <c r="S113">
-        <v>0.738</v>
+        <v>0.945</v>
       </c>
       <c r="T113">
-        <v>0.836</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="114" spans="1:20">
@@ -4301,19 +4301,19 @@
         <v>44</v>
       </c>
       <c r="C115" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J115">
-        <v>0.514</v>
+        <v>0.981</v>
       </c>
       <c r="K115">
-        <v>0.573</v>
+        <v>0.975</v>
       </c>
       <c r="L115">
-        <v>0.652</v>
+        <v>0.989</v>
       </c>
     </row>
     <row r="116" spans="1:20">
@@ -4324,19 +4324,19 @@
         <v>44</v>
       </c>
       <c r="C116" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J116">
-        <v>0.981</v>
+        <v>0.514</v>
       </c>
       <c r="K116">
-        <v>0.975</v>
+        <v>0.573</v>
       </c>
       <c r="L116">
-        <v>0.989</v>
+        <v>0.652</v>
       </c>
     </row>
     <row r="117" spans="1:20">
@@ -4347,10 +4347,10 @@
         <v>44</v>
       </c>
       <c r="C117" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J117">
         <v>0.663</v>
@@ -4434,43 +4434,58 @@
         <v>45</v>
       </c>
       <c r="C120" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="E120">
+        <v>0.961</v>
+      </c>
+      <c r="F120">
+        <v>0.987</v>
+      </c>
+      <c r="G120">
+        <v>0.991</v>
+      </c>
+      <c r="H120">
+        <v>0.947</v>
+      </c>
+      <c r="I120">
+        <v>0.967</v>
       </c>
       <c r="J120">
-        <v>0.491</v>
+        <v>0.985</v>
       </c>
       <c r="K120">
-        <v>0.5679999999999999</v>
+        <v>0.984</v>
       </c>
       <c r="L120">
-        <v>0.6840000000000001</v>
+        <v>0.988</v>
       </c>
       <c r="M120">
-        <v>0.848</v>
+        <v>0.994</v>
       </c>
       <c r="N120">
-        <v>0.669</v>
+        <v>0.989</v>
       </c>
       <c r="O120">
-        <v>0.554</v>
+        <v>0.985</v>
       </c>
       <c r="P120">
-        <v>0.465</v>
+        <v>0.983</v>
       </c>
       <c r="Q120">
-        <v>0.456</v>
+        <v>0.99</v>
       </c>
       <c r="R120">
-        <v>0.456</v>
+        <v>0.991</v>
       </c>
       <c r="S120">
-        <v>0.474</v>
+        <v>0.989</v>
       </c>
       <c r="T120">
-        <v>0.502</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="121" spans="1:20">
@@ -4481,58 +4496,34 @@
         <v>45</v>
       </c>
       <c r="C121" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E121">
-        <v>0.961</v>
-      </c>
-      <c r="F121">
-        <v>0.987</v>
-      </c>
-      <c r="G121">
-        <v>0.991</v>
-      </c>
-      <c r="H121">
-        <v>0.947</v>
+        <v>78</v>
       </c>
       <c r="I121">
-        <v>0.967</v>
+        <v>0.869</v>
       </c>
       <c r="J121">
-        <v>0.985</v>
-      </c>
-      <c r="K121">
-        <v>0.984</v>
-      </c>
-      <c r="L121">
-        <v>0.988</v>
-      </c>
-      <c r="M121">
-        <v>0.994</v>
-      </c>
-      <c r="N121">
-        <v>0.989</v>
+        <v>0.966</v>
       </c>
       <c r="O121">
-        <v>0.985</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="P121">
-        <v>0.983</v>
+        <v>0.55</v>
       </c>
       <c r="Q121">
-        <v>0.99</v>
+        <v>0.538</v>
       </c>
       <c r="R121">
-        <v>0.991</v>
+        <v>0.548</v>
       </c>
       <c r="S121">
-        <v>0.989</v>
+        <v>0.524</v>
       </c>
       <c r="T121">
-        <v>0.995</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="122" spans="1:20">
@@ -4543,58 +4534,43 @@
         <v>45</v>
       </c>
       <c r="C122" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E122">
-        <v>0.607</v>
-      </c>
-      <c r="F122">
-        <v>0.583</v>
-      </c>
-      <c r="G122">
-        <v>0.747</v>
-      </c>
-      <c r="H122">
-        <v>0.593</v>
-      </c>
-      <c r="I122">
-        <v>0.751</v>
+        <v>80</v>
       </c>
       <c r="J122">
-        <v>0.746</v>
+        <v>0.491</v>
       </c>
       <c r="K122">
-        <v>0.727</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="L122">
-        <v>0.783</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="M122">
-        <v>0.821</v>
+        <v>0.848</v>
       </c>
       <c r="N122">
-        <v>0.776</v>
+        <v>0.669</v>
       </c>
       <c r="O122">
-        <v>0.795</v>
+        <v>0.554</v>
       </c>
       <c r="P122">
-        <v>0.775</v>
+        <v>0.465</v>
       </c>
       <c r="Q122">
-        <v>0.771</v>
+        <v>0.456</v>
       </c>
       <c r="R122">
-        <v>0.735</v>
+        <v>0.456</v>
       </c>
       <c r="S122">
-        <v>0.727</v>
+        <v>0.474</v>
       </c>
       <c r="T122">
-        <v>0.673</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="123" spans="1:20">
@@ -4610,29 +4586,53 @@
       <c r="D123" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="E123">
+        <v>0.607</v>
+      </c>
+      <c r="F123">
+        <v>0.583</v>
+      </c>
+      <c r="G123">
+        <v>0.747</v>
+      </c>
+      <c r="H123">
+        <v>0.593</v>
+      </c>
       <c r="I123">
-        <v>0.869</v>
+        <v>0.751</v>
       </c>
       <c r="J123">
-        <v>0.966</v>
+        <v>0.746</v>
+      </c>
+      <c r="K123">
+        <v>0.727</v>
+      </c>
+      <c r="L123">
+        <v>0.783</v>
+      </c>
+      <c r="M123">
+        <v>0.821</v>
+      </c>
+      <c r="N123">
+        <v>0.776</v>
       </c>
       <c r="O123">
-        <v>0.5659999999999999</v>
+        <v>0.795</v>
       </c>
       <c r="P123">
-        <v>0.55</v>
+        <v>0.775</v>
       </c>
       <c r="Q123">
-        <v>0.538</v>
+        <v>0.771</v>
       </c>
       <c r="R123">
-        <v>0.548</v>
+        <v>0.735</v>
       </c>
       <c r="S123">
-        <v>0.524</v>
+        <v>0.727</v>
       </c>
       <c r="T123">
-        <v>0.43</v>
+        <v>0.673</v>
       </c>
     </row>
     <row r="124" spans="1:20">
@@ -4712,23 +4712,11 @@
       <c r="D126" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E126">
-        <v>0.957</v>
-      </c>
-      <c r="F126">
-        <v>0.874</v>
-      </c>
-      <c r="G126">
-        <v>0.954</v>
-      </c>
-      <c r="H126">
-        <v>0.9429999999999999</v>
-      </c>
       <c r="I126">
-        <v>0.958</v>
+        <v>0.787</v>
       </c>
       <c r="J126">
-        <v>0.976</v>
+        <v>0.905</v>
       </c>
     </row>
     <row r="127" spans="1:20">
@@ -4744,11 +4732,23 @@
       <c r="D127" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="E127">
+        <v>0.957</v>
+      </c>
+      <c r="F127">
+        <v>0.874</v>
+      </c>
+      <c r="G127">
+        <v>0.954</v>
+      </c>
+      <c r="H127">
+        <v>0.9429999999999999</v>
+      </c>
       <c r="I127">
-        <v>0.787</v>
+        <v>0.958</v>
       </c>
       <c r="J127">
-        <v>0.905</v>
+        <v>0.976</v>
       </c>
     </row>
     <row r="128" spans="1:20">
@@ -4823,43 +4823,58 @@
         <v>47</v>
       </c>
       <c r="C130" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="E130">
+        <v>0.962</v>
+      </c>
+      <c r="F130">
+        <v>0.978</v>
+      </c>
+      <c r="G130">
+        <v>0.989</v>
+      </c>
+      <c r="H130">
+        <v>0.966</v>
+      </c>
+      <c r="I130">
+        <v>0.982</v>
       </c>
       <c r="J130">
-        <v>0.493</v>
+        <v>0.984</v>
       </c>
       <c r="K130">
-        <v>0.586</v>
+        <v>0.978</v>
       </c>
       <c r="L130">
-        <v>0.651</v>
+        <v>0.989</v>
       </c>
       <c r="M130">
-        <v>0.848</v>
+        <v>0.985</v>
       </c>
       <c r="N130">
-        <v>0.666</v>
+        <v>0.984</v>
       </c>
       <c r="O130">
-        <v>0.549</v>
+        <v>0.984</v>
       </c>
       <c r="P130">
-        <v>0.479</v>
+        <v>0.989</v>
       </c>
       <c r="Q130">
-        <v>0.485</v>
+        <v>0.984</v>
       </c>
       <c r="R130">
-        <v>0.487</v>
+        <v>0.992</v>
       </c>
       <c r="S130">
-        <v>0.497</v>
+        <v>0.992</v>
       </c>
       <c r="T130">
-        <v>0.5669999999999999</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="131" spans="1:20">
@@ -4870,58 +4885,34 @@
         <v>47</v>
       </c>
       <c r="C131" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E131">
-        <v>0.962</v>
-      </c>
-      <c r="F131">
-        <v>0.978</v>
-      </c>
-      <c r="G131">
-        <v>0.989</v>
-      </c>
-      <c r="H131">
-        <v>0.966</v>
+        <v>78</v>
       </c>
       <c r="I131">
-        <v>0.982</v>
+        <v>0.873</v>
       </c>
       <c r="J131">
-        <v>0.984</v>
-      </c>
-      <c r="K131">
-        <v>0.978</v>
-      </c>
-      <c r="L131">
-        <v>0.989</v>
-      </c>
-      <c r="M131">
-        <v>0.985</v>
-      </c>
-      <c r="N131">
-        <v>0.984</v>
+        <v>0.951</v>
       </c>
       <c r="O131">
-        <v>0.984</v>
+        <v>0.576</v>
       </c>
       <c r="P131">
-        <v>0.989</v>
+        <v>0.529</v>
       </c>
       <c r="Q131">
-        <v>0.984</v>
+        <v>0.539</v>
       </c>
       <c r="R131">
-        <v>0.992</v>
+        <v>0.59</v>
       </c>
       <c r="S131">
-        <v>0.992</v>
+        <v>0.518</v>
       </c>
       <c r="T131">
-        <v>0.995</v>
+        <v>0.526</v>
       </c>
     </row>
     <row r="132" spans="1:20">
@@ -4932,58 +4923,43 @@
         <v>47</v>
       </c>
       <c r="C132" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E132">
-        <v>0.615</v>
-      </c>
-      <c r="F132">
-        <v>0.577</v>
-      </c>
-      <c r="G132">
-        <v>0.756</v>
-      </c>
-      <c r="H132">
-        <v>0.601</v>
-      </c>
-      <c r="I132">
-        <v>0.771</v>
+        <v>80</v>
       </c>
       <c r="J132">
-        <v>0.757</v>
+        <v>0.493</v>
       </c>
       <c r="K132">
-        <v>0.731</v>
+        <v>0.586</v>
       </c>
       <c r="L132">
-        <v>0.79</v>
+        <v>0.651</v>
       </c>
       <c r="M132">
-        <v>0.8139999999999999</v>
+        <v>0.848</v>
       </c>
       <c r="N132">
-        <v>0.76</v>
+        <v>0.666</v>
       </c>
       <c r="O132">
-        <v>0.77</v>
+        <v>0.549</v>
       </c>
       <c r="P132">
-        <v>0.75</v>
+        <v>0.479</v>
       </c>
       <c r="Q132">
-        <v>0.741</v>
+        <v>0.485</v>
       </c>
       <c r="R132">
-        <v>0.747</v>
+        <v>0.487</v>
       </c>
       <c r="S132">
-        <v>0.717</v>
+        <v>0.497</v>
       </c>
       <c r="T132">
-        <v>0.67</v>
+        <v>0.5669999999999999</v>
       </c>
     </row>
     <row r="133" spans="1:20">
@@ -4999,29 +4975,53 @@
       <c r="D133" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="E133">
+        <v>0.615</v>
+      </c>
+      <c r="F133">
+        <v>0.577</v>
+      </c>
+      <c r="G133">
+        <v>0.756</v>
+      </c>
+      <c r="H133">
+        <v>0.601</v>
+      </c>
       <c r="I133">
-        <v>0.873</v>
+        <v>0.771</v>
       </c>
       <c r="J133">
-        <v>0.951</v>
+        <v>0.757</v>
+      </c>
+      <c r="K133">
+        <v>0.731</v>
+      </c>
+      <c r="L133">
+        <v>0.79</v>
+      </c>
+      <c r="M133">
+        <v>0.8139999999999999</v>
+      </c>
+      <c r="N133">
+        <v>0.76</v>
       </c>
       <c r="O133">
-        <v>0.576</v>
+        <v>0.77</v>
       </c>
       <c r="P133">
-        <v>0.529</v>
+        <v>0.75</v>
       </c>
       <c r="Q133">
-        <v>0.539</v>
+        <v>0.741</v>
       </c>
       <c r="R133">
-        <v>0.59</v>
+        <v>0.747</v>
       </c>
       <c r="S133">
-        <v>0.518</v>
+        <v>0.717</v>
       </c>
       <c r="T133">
-        <v>0.526</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="134" spans="1:20">
@@ -5064,28 +5064,28 @@
         <v>48</v>
       </c>
       <c r="C135" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J135">
-        <v>0.401</v>
+        <v>0.678</v>
       </c>
       <c r="K135">
-        <v>0.584</v>
+        <v>0.726</v>
       </c>
       <c r="L135">
-        <v>0.659</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="M135">
-        <v>0.767</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="N135">
-        <v>0.67</v>
+        <v>0.788</v>
       </c>
       <c r="O135">
-        <v>0.675</v>
+        <v>0.775</v>
       </c>
     </row>
     <row r="136" spans="1:20">
@@ -5096,28 +5096,28 @@
         <v>48</v>
       </c>
       <c r="C136" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J136">
-        <v>0.678</v>
+        <v>0.401</v>
       </c>
       <c r="K136">
-        <v>0.726</v>
+        <v>0.584</v>
       </c>
       <c r="L136">
-        <v>0.8080000000000001</v>
+        <v>0.659</v>
       </c>
       <c r="M136">
-        <v>0.8149999999999999</v>
+        <v>0.767</v>
       </c>
       <c r="N136">
-        <v>0.788</v>
+        <v>0.67</v>
       </c>
       <c r="O136">
-        <v>0.775</v>
+        <v>0.675</v>
       </c>
     </row>
     <row r="137" spans="1:20">
@@ -5128,10 +5128,10 @@
         <v>48</v>
       </c>
       <c r="C137" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J137">
         <v>0.967</v>
@@ -5192,43 +5192,43 @@
         <v>49</v>
       </c>
       <c r="C139" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J139">
-        <v>1</v>
+        <v>0.419</v>
       </c>
       <c r="K139">
-        <v>0.961</v>
+        <v>0.594</v>
       </c>
       <c r="L139">
-        <v>1</v>
+        <v>0.806</v>
       </c>
       <c r="M139">
-        <v>0.763</v>
+        <v>0.464</v>
       </c>
       <c r="N139">
-        <v>0.872</v>
+        <v>0.595</v>
       </c>
       <c r="O139">
-        <v>0.903</v>
+        <v>0.455</v>
       </c>
       <c r="P139">
-        <v>0.984</v>
+        <v>0.452</v>
       </c>
       <c r="Q139">
-        <v>0.979</v>
+        <v>0.444</v>
       </c>
       <c r="R139">
-        <v>0.987</v>
+        <v>0.43</v>
       </c>
       <c r="S139">
-        <v>0.969</v>
+        <v>0.413</v>
       </c>
       <c r="T139">
-        <v>0.922</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="140" spans="1:20">
@@ -5239,43 +5239,28 @@
         <v>49</v>
       </c>
       <c r="C140" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J140">
-        <v>0.419</v>
-      </c>
-      <c r="K140">
-        <v>0.594</v>
-      </c>
-      <c r="L140">
-        <v>0.806</v>
-      </c>
-      <c r="M140">
-        <v>0.464</v>
-      </c>
-      <c r="N140">
-        <v>0.595</v>
+        <v>78</v>
       </c>
       <c r="O140">
-        <v>0.455</v>
+        <v>0.586</v>
       </c>
       <c r="P140">
-        <v>0.452</v>
+        <v>0.66</v>
       </c>
       <c r="Q140">
-        <v>0.444</v>
+        <v>0.647</v>
       </c>
       <c r="R140">
-        <v>0.43</v>
+        <v>0.626</v>
       </c>
       <c r="S140">
-        <v>0.413</v>
+        <v>0.479</v>
       </c>
       <c r="T140">
-        <v>0.381</v>
+        <v>0.644</v>
       </c>
     </row>
     <row r="141" spans="1:20">
@@ -5286,43 +5271,43 @@
         <v>49</v>
       </c>
       <c r="C141" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J141">
-        <v>0.306</v>
+        <v>1</v>
       </c>
       <c r="K141">
-        <v>0.754</v>
+        <v>0.961</v>
       </c>
       <c r="L141">
-        <v>0.744</v>
+        <v>1</v>
       </c>
       <c r="M141">
-        <v>0.503</v>
+        <v>0.763</v>
       </c>
       <c r="N141">
-        <v>0.68</v>
+        <v>0.872</v>
       </c>
       <c r="O141">
-        <v>0.5600000000000001</v>
+        <v>0.903</v>
       </c>
       <c r="P141">
-        <v>0.538</v>
+        <v>0.984</v>
       </c>
       <c r="Q141">
-        <v>0.542</v>
+        <v>0.979</v>
       </c>
       <c r="R141">
-        <v>0.539</v>
+        <v>0.987</v>
       </c>
       <c r="S141">
-        <v>0.433</v>
+        <v>0.969</v>
       </c>
       <c r="T141">
-        <v>0.652</v>
+        <v>0.922</v>
       </c>
     </row>
     <row r="142" spans="1:20">
@@ -5338,23 +5323,38 @@
       <c r="D142" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="J142">
+        <v>0.306</v>
+      </c>
+      <c r="K142">
+        <v>0.754</v>
+      </c>
+      <c r="L142">
+        <v>0.744</v>
+      </c>
+      <c r="M142">
+        <v>0.503</v>
+      </c>
+      <c r="N142">
+        <v>0.68</v>
+      </c>
       <c r="O142">
-        <v>0.586</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P142">
-        <v>0.66</v>
+        <v>0.538</v>
       </c>
       <c r="Q142">
-        <v>0.647</v>
+        <v>0.542</v>
       </c>
       <c r="R142">
-        <v>0.626</v>
+        <v>0.539</v>
       </c>
       <c r="S142">
-        <v>0.479</v>
+        <v>0.433</v>
       </c>
       <c r="T142">
-        <v>0.644</v>
+        <v>0.652</v>
       </c>
     </row>
     <row r="143" spans="1:20">
@@ -5397,28 +5397,28 @@
         <v>50</v>
       </c>
       <c r="C144" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J144">
-        <v>0.525</v>
+        <v>0.641</v>
       </c>
       <c r="K144">
-        <v>0.48</v>
+        <v>0.665</v>
       </c>
       <c r="L144">
-        <v>0.46</v>
+        <v>0.53</v>
       </c>
       <c r="M144">
-        <v>0.59</v>
+        <v>0.646</v>
       </c>
       <c r="N144">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="O144">
-        <v>0.499</v>
+        <v>0.676</v>
       </c>
     </row>
     <row r="145" spans="1:20">
@@ -5429,28 +5429,28 @@
         <v>50</v>
       </c>
       <c r="C145" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J145">
-        <v>0.641</v>
+        <v>0.525</v>
       </c>
       <c r="K145">
-        <v>0.665</v>
+        <v>0.48</v>
       </c>
       <c r="L145">
-        <v>0.53</v>
+        <v>0.46</v>
       </c>
       <c r="M145">
-        <v>0.646</v>
+        <v>0.59</v>
       </c>
       <c r="N145">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="O145">
-        <v>0.676</v>
+        <v>0.499</v>
       </c>
     </row>
     <row r="146" spans="1:20">
@@ -5461,10 +5461,10 @@
         <v>50</v>
       </c>
       <c r="C146" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J146">
         <v>0.62</v>
@@ -5557,28 +5557,43 @@
         <v>51</v>
       </c>
       <c r="C149" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="E149">
+        <v>0.966</v>
+      </c>
+      <c r="F149">
+        <v>0.979</v>
+      </c>
+      <c r="G149">
+        <v>0.983</v>
+      </c>
+      <c r="H149">
+        <v>0.952</v>
+      </c>
+      <c r="I149">
+        <v>0.975</v>
       </c>
       <c r="J149">
-        <v>0.505</v>
+        <v>0.981</v>
       </c>
       <c r="K149">
-        <v>0.577</v>
+        <v>0.969</v>
       </c>
       <c r="L149">
-        <v>0.662</v>
+        <v>0.972</v>
       </c>
       <c r="M149">
-        <v>0.861</v>
+        <v>0.989</v>
       </c>
       <c r="N149">
-        <v>0.676</v>
+        <v>0.98</v>
       </c>
       <c r="O149">
-        <v>0.593</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="150" spans="1:20">
@@ -5589,43 +5604,16 @@
         <v>51</v>
       </c>
       <c r="C150" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E150">
-        <v>0.966</v>
-      </c>
-      <c r="F150">
-        <v>0.979</v>
-      </c>
-      <c r="G150">
-        <v>0.983</v>
-      </c>
-      <c r="H150">
-        <v>0.952</v>
+        <v>78</v>
       </c>
       <c r="I150">
-        <v>0.975</v>
+        <v>0.892</v>
       </c>
       <c r="J150">
-        <v>0.981</v>
-      </c>
-      <c r="K150">
-        <v>0.969</v>
-      </c>
-      <c r="L150">
-        <v>0.972</v>
-      </c>
-      <c r="M150">
-        <v>0.989</v>
-      </c>
-      <c r="N150">
-        <v>0.98</v>
-      </c>
-      <c r="O150">
-        <v>0.975</v>
+        <v>0.953</v>
       </c>
     </row>
     <row r="151" spans="1:20">
@@ -5636,43 +5624,28 @@
         <v>51</v>
       </c>
       <c r="C151" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E151">
-        <v>0.621</v>
-      </c>
-      <c r="F151">
-        <v>0.586</v>
-      </c>
-      <c r="G151">
-        <v>0.756</v>
-      </c>
-      <c r="H151">
-        <v>0.612</v>
-      </c>
-      <c r="I151">
-        <v>0.766</v>
+        <v>80</v>
       </c>
       <c r="J151">
-        <v>0.734</v>
+        <v>0.505</v>
       </c>
       <c r="K151">
-        <v>0.706</v>
+        <v>0.577</v>
       </c>
       <c r="L151">
-        <v>0.786</v>
+        <v>0.662</v>
       </c>
       <c r="M151">
-        <v>0.822</v>
+        <v>0.861</v>
       </c>
       <c r="N151">
-        <v>0.761</v>
+        <v>0.676</v>
       </c>
       <c r="O151">
-        <v>0.754</v>
+        <v>0.593</v>
       </c>
     </row>
     <row r="152" spans="1:20">
@@ -5688,11 +5661,38 @@
       <c r="D152" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="E152">
+        <v>0.621</v>
+      </c>
+      <c r="F152">
+        <v>0.586</v>
+      </c>
+      <c r="G152">
+        <v>0.756</v>
+      </c>
+      <c r="H152">
+        <v>0.612</v>
+      </c>
       <c r="I152">
-        <v>0.892</v>
+        <v>0.766</v>
       </c>
       <c r="J152">
-        <v>0.953</v>
+        <v>0.734</v>
+      </c>
+      <c r="K152">
+        <v>0.706</v>
+      </c>
+      <c r="L152">
+        <v>0.786</v>
+      </c>
+      <c r="M152">
+        <v>0.822</v>
+      </c>
+      <c r="N152">
+        <v>0.761</v>
+      </c>
+      <c r="O152">
+        <v>0.754</v>
       </c>
     </row>
     <row r="153" spans="1:20">
@@ -5755,43 +5755,46 @@
         <v>52</v>
       </c>
       <c r="C155" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="I155">
+        <v>0.871</v>
       </c>
       <c r="J155">
-        <v>0.377</v>
+        <v>0.974</v>
       </c>
       <c r="K155">
-        <v>0.544</v>
+        <v>0.985</v>
       </c>
       <c r="L155">
-        <v>0.658</v>
+        <v>0.989</v>
       </c>
       <c r="M155">
-        <v>0.837</v>
+        <v>0.986</v>
       </c>
       <c r="N155">
-        <v>0.672</v>
+        <v>0.978</v>
       </c>
       <c r="O155">
-        <v>0.546</v>
+        <v>0.981</v>
       </c>
       <c r="P155">
-        <v>0.472</v>
+        <v>0.982</v>
       </c>
       <c r="Q155">
-        <v>0.502</v>
+        <v>0.982</v>
       </c>
       <c r="R155">
-        <v>0.451</v>
+        <v>0.992</v>
       </c>
       <c r="S155">
-        <v>0.48</v>
+        <v>0.979</v>
       </c>
       <c r="T155">
-        <v>0.539</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="156" spans="1:20">
@@ -5802,46 +5805,34 @@
         <v>52</v>
       </c>
       <c r="C156" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I156">
-        <v>0.871</v>
+        <v>1</v>
       </c>
       <c r="J156">
-        <v>0.974</v>
-      </c>
-      <c r="K156">
-        <v>0.985</v>
-      </c>
-      <c r="L156">
-        <v>0.989</v>
-      </c>
-      <c r="M156">
-        <v>0.986</v>
-      </c>
-      <c r="N156">
-        <v>0.978</v>
+        <v>1</v>
       </c>
       <c r="O156">
-        <v>0.981</v>
+        <v>0.502</v>
       </c>
       <c r="P156">
-        <v>0.982</v>
+        <v>0.526</v>
       </c>
       <c r="Q156">
-        <v>0.982</v>
+        <v>0.548</v>
       </c>
       <c r="R156">
-        <v>0.992</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="S156">
-        <v>0.979</v>
+        <v>0.52</v>
       </c>
       <c r="T156">
-        <v>0.988</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="157" spans="1:20">
@@ -5852,46 +5843,43 @@
         <v>52</v>
       </c>
       <c r="C157" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I157">
-        <v>0.829</v>
+        <v>80</v>
       </c>
       <c r="J157">
-        <v>0.794</v>
+        <v>0.377</v>
       </c>
       <c r="K157">
-        <v>0.701</v>
+        <v>0.544</v>
       </c>
       <c r="L157">
-        <v>0.797</v>
+        <v>0.658</v>
       </c>
       <c r="M157">
-        <v>0.805</v>
+        <v>0.837</v>
       </c>
       <c r="N157">
-        <v>0.726</v>
+        <v>0.672</v>
       </c>
       <c r="O157">
-        <v>0.753</v>
+        <v>0.546</v>
       </c>
       <c r="P157">
-        <v>0.737</v>
+        <v>0.472</v>
       </c>
       <c r="Q157">
-        <v>0.749</v>
+        <v>0.502</v>
       </c>
       <c r="R157">
-        <v>0.747</v>
+        <v>0.451</v>
       </c>
       <c r="S157">
-        <v>0.709</v>
+        <v>0.48</v>
       </c>
       <c r="T157">
-        <v>0.654</v>
+        <v>0.539</v>
       </c>
     </row>
     <row r="158" spans="1:20">
@@ -5908,28 +5896,40 @@
         <v>79</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>0.829</v>
       </c>
       <c r="J158">
-        <v>1</v>
+        <v>0.794</v>
+      </c>
+      <c r="K158">
+        <v>0.701</v>
+      </c>
+      <c r="L158">
+        <v>0.797</v>
+      </c>
+      <c r="M158">
+        <v>0.805</v>
+      </c>
+      <c r="N158">
+        <v>0.726</v>
       </c>
       <c r="O158">
-        <v>0.502</v>
+        <v>0.753</v>
       </c>
       <c r="P158">
-        <v>0.526</v>
+        <v>0.737</v>
       </c>
       <c r="Q158">
-        <v>0.548</v>
+        <v>0.749</v>
       </c>
       <c r="R158">
-        <v>0.5659999999999999</v>
+        <v>0.747</v>
       </c>
       <c r="S158">
-        <v>0.52</v>
+        <v>0.709</v>
       </c>
       <c r="T158">
-        <v>0.442</v>
+        <v>0.654</v>
       </c>
     </row>
     <row r="159" spans="1:20">
@@ -6001,37 +6001,52 @@
         <v>53</v>
       </c>
       <c r="C161" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="E161">
+        <v>0.963</v>
+      </c>
+      <c r="F161">
+        <v>0.975</v>
+      </c>
+      <c r="G161">
+        <v>0.982</v>
+      </c>
+      <c r="H161">
+        <v>0.966</v>
+      </c>
+      <c r="I161">
+        <v>0.977</v>
       </c>
       <c r="J161">
-        <v>0.47</v>
+        <v>0.961</v>
       </c>
       <c r="K161">
-        <v>0.594</v>
+        <v>0.976</v>
       </c>
       <c r="L161">
-        <v>0.658</v>
+        <v>0.984</v>
       </c>
       <c r="M161">
-        <v>0.872</v>
+        <v>0.977</v>
       </c>
       <c r="N161">
-        <v>0.522</v>
+        <v>0.955</v>
       </c>
       <c r="O161">
-        <v>0.616</v>
+        <v>0.947</v>
       </c>
       <c r="R161">
-        <v>0.445</v>
+        <v>0.982</v>
       </c>
       <c r="S161">
-        <v>0.472</v>
+        <v>0.973</v>
       </c>
       <c r="T161">
-        <v>0.51</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="162" spans="1:20">
@@ -6042,52 +6057,25 @@
         <v>53</v>
       </c>
       <c r="C162" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E162">
-        <v>0.963</v>
-      </c>
-      <c r="F162">
-        <v>0.975</v>
-      </c>
-      <c r="G162">
-        <v>0.982</v>
-      </c>
-      <c r="H162">
-        <v>0.966</v>
+        <v>78</v>
       </c>
       <c r="I162">
-        <v>0.977</v>
+        <v>0.875</v>
       </c>
       <c r="J162">
-        <v>0.961</v>
-      </c>
-      <c r="K162">
-        <v>0.976</v>
-      </c>
-      <c r="L162">
-        <v>0.984</v>
-      </c>
-      <c r="M162">
-        <v>0.977</v>
-      </c>
-      <c r="N162">
-        <v>0.955</v>
-      </c>
-      <c r="O162">
-        <v>0.947</v>
+        <v>0.951</v>
       </c>
       <c r="R162">
-        <v>0.982</v>
+        <v>0.575</v>
       </c>
       <c r="S162">
-        <v>0.973</v>
+        <v>0.51</v>
       </c>
       <c r="T162">
-        <v>0.986</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="163" spans="1:20">
@@ -6098,52 +6086,37 @@
         <v>53</v>
       </c>
       <c r="C163" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E163">
+        <v>80</v>
+      </c>
+      <c r="J163">
+        <v>0.47</v>
+      </c>
+      <c r="K163">
         <v>0.594</v>
       </c>
-      <c r="F163">
-        <v>0.5679999999999999</v>
-      </c>
-      <c r="G163">
-        <v>0.748</v>
-      </c>
-      <c r="H163">
-        <v>0.586</v>
-      </c>
-      <c r="I163">
-        <v>0.762</v>
-      </c>
-      <c r="J163">
-        <v>0.738</v>
-      </c>
-      <c r="K163">
-        <v>0.725</v>
-      </c>
       <c r="L163">
-        <v>0.806</v>
+        <v>0.658</v>
       </c>
       <c r="M163">
-        <v>0.796</v>
+        <v>0.872</v>
       </c>
       <c r="N163">
-        <v>0.698</v>
+        <v>0.522</v>
       </c>
       <c r="O163">
-        <v>0.802</v>
+        <v>0.616</v>
       </c>
       <c r="R163">
-        <v>0.783</v>
+        <v>0.445</v>
       </c>
       <c r="S163">
-        <v>0.6929999999999999</v>
+        <v>0.472</v>
       </c>
       <c r="T163">
-        <v>0.74</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="164" spans="1:20">
@@ -6159,20 +6132,47 @@
       <c r="D164" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="E164">
+        <v>0.594</v>
+      </c>
+      <c r="F164">
+        <v>0.5679999999999999</v>
+      </c>
+      <c r="G164">
+        <v>0.748</v>
+      </c>
+      <c r="H164">
+        <v>0.586</v>
+      </c>
       <c r="I164">
-        <v>0.875</v>
+        <v>0.762</v>
       </c>
       <c r="J164">
-        <v>0.951</v>
+        <v>0.738</v>
+      </c>
+      <c r="K164">
+        <v>0.725</v>
+      </c>
+      <c r="L164">
+        <v>0.806</v>
+      </c>
+      <c r="M164">
+        <v>0.796</v>
+      </c>
+      <c r="N164">
+        <v>0.698</v>
+      </c>
+      <c r="O164">
+        <v>0.802</v>
       </c>
       <c r="R164">
-        <v>0.575</v>
+        <v>0.783</v>
       </c>
       <c r="S164">
-        <v>0.51</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="T164">
-        <v>0.64</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="165" spans="1:20">
@@ -6252,23 +6252,11 @@
       <c r="D167" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E167">
-        <v>0.985</v>
-      </c>
-      <c r="F167">
-        <v>0.997</v>
-      </c>
-      <c r="G167">
-        <v>0.957</v>
-      </c>
-      <c r="H167">
-        <v>0.922</v>
-      </c>
       <c r="I167">
-        <v>0.976</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="J167">
-        <v>0.965</v>
+        <v>0.822</v>
       </c>
     </row>
     <row r="168" spans="1:20">
@@ -6284,11 +6272,23 @@
       <c r="D168" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="E168">
+        <v>0.985</v>
+      </c>
+      <c r="F168">
+        <v>0.997</v>
+      </c>
+      <c r="G168">
+        <v>0.957</v>
+      </c>
+      <c r="H168">
+        <v>0.922</v>
+      </c>
       <c r="I168">
-        <v>0.9429999999999999</v>
+        <v>0.976</v>
       </c>
       <c r="J168">
-        <v>0.822</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="169" spans="1:20">
@@ -6299,28 +6299,28 @@
         <v>55</v>
       </c>
       <c r="C169" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O169">
-        <v>0.373</v>
+        <v>0.995</v>
       </c>
       <c r="P169">
-        <v>0.475</v>
+        <v>0.988</v>
       </c>
       <c r="Q169">
-        <v>0.471</v>
+        <v>0.99</v>
       </c>
       <c r="R169">
-        <v>0.464</v>
+        <v>0.993</v>
       </c>
       <c r="S169">
-        <v>0.483</v>
+        <v>0.991</v>
       </c>
       <c r="T169">
-        <v>0.583</v>
+        <v>0.994</v>
       </c>
     </row>
     <row r="170" spans="1:20">
@@ -6331,28 +6331,28 @@
         <v>55</v>
       </c>
       <c r="C170" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O170">
-        <v>0.995</v>
+        <v>0.571</v>
       </c>
       <c r="P170">
-        <v>0.988</v>
+        <v>0.529</v>
       </c>
       <c r="Q170">
-        <v>0.99</v>
+        <v>0.537</v>
       </c>
       <c r="R170">
-        <v>0.993</v>
+        <v>0.556</v>
       </c>
       <c r="S170">
-        <v>0.991</v>
+        <v>0.511</v>
       </c>
       <c r="T170">
-        <v>0.994</v>
+        <v>0.629</v>
       </c>
     </row>
     <row r="171" spans="1:20">
@@ -6363,28 +6363,28 @@
         <v>55</v>
       </c>
       <c r="C171" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O171">
-        <v>0.838</v>
+        <v>0.373</v>
       </c>
       <c r="P171">
-        <v>0.743</v>
+        <v>0.475</v>
       </c>
       <c r="Q171">
-        <v>0.748</v>
+        <v>0.471</v>
       </c>
       <c r="R171">
-        <v>0.749</v>
+        <v>0.464</v>
       </c>
       <c r="S171">
-        <v>0.698</v>
+        <v>0.483</v>
       </c>
       <c r="T171">
-        <v>0.671</v>
+        <v>0.583</v>
       </c>
     </row>
     <row r="172" spans="1:20">
@@ -6401,22 +6401,22 @@
         <v>79</v>
       </c>
       <c r="O172">
-        <v>0.571</v>
+        <v>0.838</v>
       </c>
       <c r="P172">
-        <v>0.529</v>
+        <v>0.743</v>
       </c>
       <c r="Q172">
-        <v>0.537</v>
+        <v>0.748</v>
       </c>
       <c r="R172">
-        <v>0.556</v>
+        <v>0.749</v>
       </c>
       <c r="S172">
-        <v>0.511</v>
+        <v>0.698</v>
       </c>
       <c r="T172">
-        <v>0.629</v>
+        <v>0.671</v>
       </c>
     </row>
     <row r="173" spans="1:20">
@@ -6476,13 +6476,28 @@
         <v>56</v>
       </c>
       <c r="C175" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="E175">
+        <v>0.92</v>
+      </c>
+      <c r="F175">
+        <v>0.977</v>
+      </c>
+      <c r="G175">
+        <v>0.989</v>
+      </c>
+      <c r="H175">
+        <v>0.96</v>
+      </c>
+      <c r="I175">
+        <v>0.974</v>
       </c>
       <c r="J175">
-        <v>0.462</v>
+        <v>0.978</v>
       </c>
     </row>
     <row r="176" spans="1:20">
@@ -6493,28 +6508,16 @@
         <v>56</v>
       </c>
       <c r="C176" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E176">
-        <v>0.92</v>
-      </c>
-      <c r="F176">
-        <v>0.977</v>
-      </c>
-      <c r="G176">
-        <v>0.989</v>
-      </c>
-      <c r="H176">
-        <v>0.96</v>
+        <v>78</v>
       </c>
       <c r="I176">
-        <v>0.974</v>
+        <v>0.865</v>
       </c>
       <c r="J176">
-        <v>0.978</v>
+        <v>0.955</v>
       </c>
     </row>
     <row r="177" spans="1:20">
@@ -6525,28 +6528,13 @@
         <v>56</v>
       </c>
       <c r="C177" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E177">
-        <v>0.588</v>
-      </c>
-      <c r="F177">
-        <v>0.597</v>
-      </c>
-      <c r="G177">
-        <v>0.73</v>
-      </c>
-      <c r="H177">
-        <v>0.6</v>
-      </c>
-      <c r="I177">
-        <v>0.752</v>
+        <v>80</v>
       </c>
       <c r="J177">
-        <v>0.783</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="178" spans="1:20">
@@ -6562,11 +6550,23 @@
       <c r="D178" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="E178">
+        <v>0.588</v>
+      </c>
+      <c r="F178">
+        <v>0.597</v>
+      </c>
+      <c r="G178">
+        <v>0.73</v>
+      </c>
+      <c r="H178">
+        <v>0.6</v>
+      </c>
       <c r="I178">
-        <v>0.865</v>
+        <v>0.752</v>
       </c>
       <c r="J178">
-        <v>0.955</v>
+        <v>0.783</v>
       </c>
     </row>
     <row r="179" spans="1:20">
@@ -6577,28 +6577,28 @@
         <v>57</v>
       </c>
       <c r="C179" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O179">
-        <v>0.44</v>
+        <v>0.836</v>
       </c>
       <c r="P179">
-        <v>0.514</v>
+        <v>0.745</v>
       </c>
       <c r="Q179">
-        <v>0.534</v>
+        <v>0.757</v>
       </c>
       <c r="R179">
-        <v>0.523</v>
+        <v>0.742</v>
       </c>
       <c r="S179">
-        <v>0.459</v>
+        <v>0.676</v>
       </c>
       <c r="T179">
-        <v>0.634</v>
+        <v>0.651</v>
       </c>
     </row>
     <row r="180" spans="1:20">
@@ -6609,28 +6609,28 @@
         <v>57</v>
       </c>
       <c r="C180" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O180">
-        <v>0.836</v>
+        <v>0.709</v>
       </c>
       <c r="P180">
-        <v>0.745</v>
+        <v>0.761</v>
       </c>
       <c r="Q180">
-        <v>0.757</v>
+        <v>0.749</v>
       </c>
       <c r="R180">
-        <v>0.742</v>
+        <v>0.825</v>
       </c>
       <c r="S180">
-        <v>0.676</v>
+        <v>0.788</v>
       </c>
       <c r="T180">
-        <v>0.651</v>
+        <v>0.787</v>
       </c>
     </row>
     <row r="181" spans="1:20">
@@ -6641,28 +6641,28 @@
         <v>57</v>
       </c>
       <c r="C181" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O181">
-        <v>0.988</v>
+        <v>0.44</v>
       </c>
       <c r="P181">
-        <v>0.985</v>
+        <v>0.514</v>
       </c>
       <c r="Q181">
-        <v>0.976</v>
+        <v>0.534</v>
       </c>
       <c r="R181">
-        <v>0.986</v>
+        <v>0.523</v>
       </c>
       <c r="S181">
-        <v>0.961</v>
+        <v>0.459</v>
       </c>
       <c r="T181">
-        <v>0.977</v>
+        <v>0.634</v>
       </c>
     </row>
     <row r="182" spans="1:20">
@@ -6679,22 +6679,22 @@
         <v>79</v>
       </c>
       <c r="O182">
-        <v>0.709</v>
+        <v>0.988</v>
       </c>
       <c r="P182">
-        <v>0.761</v>
+        <v>0.985</v>
       </c>
       <c r="Q182">
-        <v>0.749</v>
+        <v>0.976</v>
       </c>
       <c r="R182">
-        <v>0.825</v>
+        <v>0.986</v>
       </c>
       <c r="S182">
-        <v>0.788</v>
+        <v>0.961</v>
       </c>
       <c r="T182">
-        <v>0.787</v>
+        <v>0.977</v>
       </c>
     </row>
     <row r="183" spans="1:20">
@@ -6774,23 +6774,11 @@
       <c r="D185" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E185">
-        <v>0.65</v>
-      </c>
-      <c r="F185">
-        <v>0.58</v>
-      </c>
-      <c r="G185">
-        <v>0.743</v>
-      </c>
-      <c r="H185">
-        <v>0.6870000000000001</v>
-      </c>
       <c r="I185">
-        <v>0.763</v>
+        <v>0.865</v>
       </c>
       <c r="J185">
-        <v>0.798</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="186" spans="1:20">
@@ -6806,11 +6794,23 @@
       <c r="D186" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="E186">
+        <v>0.65</v>
+      </c>
+      <c r="F186">
+        <v>0.58</v>
+      </c>
+      <c r="G186">
+        <v>0.743</v>
+      </c>
+      <c r="H186">
+        <v>0.6870000000000001</v>
+      </c>
       <c r="I186">
-        <v>0.865</v>
+        <v>0.763</v>
       </c>
       <c r="J186">
-        <v>0.993</v>
+        <v>0.798</v>
       </c>
     </row>
     <row r="187" spans="1:20">
@@ -6890,23 +6890,11 @@
       <c r="D189" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E189">
-        <v>0.981</v>
-      </c>
-      <c r="F189">
-        <v>0.923</v>
-      </c>
-      <c r="G189">
-        <v>0.9370000000000001</v>
-      </c>
-      <c r="H189">
-        <v>0.9340000000000001</v>
-      </c>
       <c r="I189">
-        <v>0.961</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="J189">
-        <v>0.96</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="190" spans="1:20">
@@ -6922,11 +6910,23 @@
       <c r="D190" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="E190">
+        <v>0.981</v>
+      </c>
+      <c r="F190">
+        <v>0.923</v>
+      </c>
+      <c r="G190">
+        <v>0.9370000000000001</v>
+      </c>
+      <c r="H190">
+        <v>0.9340000000000001</v>
+      </c>
       <c r="I190">
-        <v>0.8159999999999999</v>
+        <v>0.961</v>
       </c>
       <c r="J190">
-        <v>0.86</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="191" spans="1:20">
@@ -6969,43 +6969,43 @@
         <v>60</v>
       </c>
       <c r="C192" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J192">
-        <v>0.382</v>
+        <v>0.986</v>
       </c>
       <c r="K192">
-        <v>0.602</v>
+        <v>0.977</v>
       </c>
       <c r="L192">
-        <v>0.614</v>
+        <v>0.988</v>
       </c>
       <c r="M192">
-        <v>0.884</v>
+        <v>0.98</v>
       </c>
       <c r="N192">
-        <v>0.668</v>
+        <v>0.974</v>
       </c>
       <c r="O192">
-        <v>0.518</v>
+        <v>0.977</v>
       </c>
       <c r="P192">
-        <v>0.468</v>
+        <v>0.981</v>
       </c>
       <c r="Q192">
-        <v>0.462</v>
+        <v>0.989</v>
       </c>
       <c r="R192">
-        <v>0.498</v>
+        <v>0.989</v>
       </c>
       <c r="S192">
-        <v>0.498</v>
+        <v>0.987</v>
       </c>
       <c r="T192">
-        <v>0.51</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="193" spans="1:20">
@@ -7016,43 +7016,28 @@
         <v>60</v>
       </c>
       <c r="C193" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J193">
-        <v>0.986</v>
-      </c>
-      <c r="K193">
-        <v>0.977</v>
-      </c>
-      <c r="L193">
-        <v>0.988</v>
-      </c>
-      <c r="M193">
-        <v>0.98</v>
-      </c>
-      <c r="N193">
-        <v>0.974</v>
+        <v>78</v>
       </c>
       <c r="O193">
-        <v>0.977</v>
+        <v>0.594</v>
       </c>
       <c r="P193">
-        <v>0.981</v>
+        <v>0.53</v>
       </c>
       <c r="Q193">
-        <v>0.989</v>
+        <v>0.517</v>
       </c>
       <c r="R193">
-        <v>0.989</v>
+        <v>0.592</v>
       </c>
       <c r="S193">
-        <v>0.987</v>
+        <v>0.492</v>
       </c>
       <c r="T193">
-        <v>0.992</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="194" spans="1:20">
@@ -7063,43 +7048,43 @@
         <v>60</v>
       </c>
       <c r="C194" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J194">
-        <v>0.708</v>
+        <v>0.382</v>
       </c>
       <c r="K194">
-        <v>0.73</v>
+        <v>0.602</v>
       </c>
       <c r="L194">
-        <v>0.804</v>
+        <v>0.614</v>
       </c>
       <c r="M194">
-        <v>0.774</v>
+        <v>0.884</v>
       </c>
       <c r="N194">
-        <v>0.751</v>
+        <v>0.668</v>
       </c>
       <c r="O194">
-        <v>0.758</v>
+        <v>0.518</v>
       </c>
       <c r="P194">
-        <v>0.697</v>
+        <v>0.468</v>
       </c>
       <c r="Q194">
-        <v>0.736</v>
+        <v>0.462</v>
       </c>
       <c r="R194">
-        <v>0.764</v>
+        <v>0.498</v>
       </c>
       <c r="S194">
-        <v>0.715</v>
+        <v>0.498</v>
       </c>
       <c r="T194">
-        <v>0.637</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="195" spans="1:20">
@@ -7115,23 +7100,38 @@
       <c r="D195" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="J195">
+        <v>0.708</v>
+      </c>
+      <c r="K195">
+        <v>0.73</v>
+      </c>
+      <c r="L195">
+        <v>0.804</v>
+      </c>
+      <c r="M195">
+        <v>0.774</v>
+      </c>
+      <c r="N195">
+        <v>0.751</v>
+      </c>
       <c r="O195">
-        <v>0.594</v>
+        <v>0.758</v>
       </c>
       <c r="P195">
-        <v>0.53</v>
+        <v>0.697</v>
       </c>
       <c r="Q195">
-        <v>0.517</v>
+        <v>0.736</v>
       </c>
       <c r="R195">
-        <v>0.592</v>
+        <v>0.764</v>
       </c>
       <c r="S195">
-        <v>0.492</v>
+        <v>0.715</v>
       </c>
       <c r="T195">
-        <v>0.416</v>
+        <v>0.637</v>
       </c>
     </row>
     <row r="196" spans="1:20">
@@ -7142,28 +7142,28 @@
         <v>61</v>
       </c>
       <c r="C196" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O196">
-        <v>0.59</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="P196">
-        <v>0.63</v>
+        <v>0.527</v>
       </c>
       <c r="Q196">
-        <v>0.635</v>
+        <v>0.537</v>
       </c>
       <c r="R196">
-        <v>0.59</v>
+        <v>0.542</v>
       </c>
       <c r="S196">
-        <v>0.504</v>
+        <v>0.514</v>
       </c>
       <c r="T196">
-        <v>0.6889999999999999</v>
+        <v>0.393</v>
       </c>
     </row>
     <row r="197" spans="1:20">
@@ -7174,28 +7174,28 @@
         <v>61</v>
       </c>
       <c r="C197" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O197">
-        <v>0.5679999999999999</v>
+        <v>1</v>
       </c>
       <c r="P197">
-        <v>0.527</v>
+        <v>0.997</v>
       </c>
       <c r="Q197">
-        <v>0.537</v>
+        <v>0.997</v>
       </c>
       <c r="R197">
-        <v>0.542</v>
+        <v>0.997</v>
       </c>
       <c r="S197">
-        <v>0.514</v>
+        <v>0.994</v>
       </c>
       <c r="T197">
-        <v>0.393</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="198" spans="1:20">
@@ -7206,28 +7206,28 @@
         <v>61</v>
       </c>
       <c r="C198" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O198">
-        <v>0.729</v>
+        <v>0.59</v>
       </c>
       <c r="P198">
-        <v>0.747</v>
+        <v>0.63</v>
       </c>
       <c r="Q198">
-        <v>0.77</v>
+        <v>0.635</v>
       </c>
       <c r="R198">
-        <v>0.8169999999999999</v>
+        <v>0.59</v>
       </c>
       <c r="S198">
-        <v>0.778</v>
+        <v>0.504</v>
       </c>
       <c r="T198">
-        <v>0.763</v>
+        <v>0.6889999999999999</v>
       </c>
     </row>
     <row r="199" spans="1:20">
@@ -7244,22 +7244,22 @@
         <v>79</v>
       </c>
       <c r="O199">
-        <v>1</v>
+        <v>0.729</v>
       </c>
       <c r="P199">
-        <v>0.997</v>
+        <v>0.747</v>
       </c>
       <c r="Q199">
-        <v>0.997</v>
+        <v>0.77</v>
       </c>
       <c r="R199">
-        <v>0.997</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="S199">
-        <v>0.994</v>
+        <v>0.778</v>
       </c>
       <c r="T199">
-        <v>0.998</v>
+        <v>0.763</v>
       </c>
     </row>
     <row r="200" spans="1:20">
@@ -7270,28 +7270,28 @@
         <v>62</v>
       </c>
       <c r="C200" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O200">
-        <v>0.465</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="P200">
-        <v>0.53</v>
+        <v>0.74</v>
       </c>
       <c r="Q200">
-        <v>0.553</v>
+        <v>0.736</v>
       </c>
       <c r="R200">
-        <v>0.521</v>
+        <v>0.727</v>
       </c>
       <c r="S200">
-        <v>0.484</v>
+        <v>0.706</v>
       </c>
       <c r="T200">
-        <v>0.652</v>
+        <v>0.639</v>
       </c>
     </row>
     <row r="201" spans="1:20">
@@ -7302,28 +7302,28 @@
         <v>62</v>
       </c>
       <c r="C201" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O201">
-        <v>0.8149999999999999</v>
+        <v>0.727</v>
       </c>
       <c r="P201">
-        <v>0.74</v>
+        <v>0.772</v>
       </c>
       <c r="Q201">
-        <v>0.736</v>
+        <v>0.758</v>
       </c>
       <c r="R201">
-        <v>0.727</v>
+        <v>0.827</v>
       </c>
       <c r="S201">
-        <v>0.706</v>
+        <v>0.781</v>
       </c>
       <c r="T201">
-        <v>0.639</v>
+        <v>0.851</v>
       </c>
     </row>
     <row r="202" spans="1:20">
@@ -7334,28 +7334,28 @@
         <v>62</v>
       </c>
       <c r="C202" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O202">
-        <v>0.982</v>
+        <v>0.465</v>
       </c>
       <c r="P202">
-        <v>0.976</v>
+        <v>0.53</v>
       </c>
       <c r="Q202">
-        <v>0.969</v>
+        <v>0.553</v>
       </c>
       <c r="R202">
-        <v>0.978</v>
+        <v>0.521</v>
       </c>
       <c r="S202">
-        <v>0.956</v>
+        <v>0.484</v>
       </c>
       <c r="T202">
-        <v>0.954</v>
+        <v>0.652</v>
       </c>
     </row>
     <row r="203" spans="1:20">
@@ -7372,22 +7372,22 @@
         <v>79</v>
       </c>
       <c r="O203">
-        <v>0.727</v>
+        <v>0.982</v>
       </c>
       <c r="P203">
-        <v>0.772</v>
+        <v>0.976</v>
       </c>
       <c r="Q203">
-        <v>0.758</v>
+        <v>0.969</v>
       </c>
       <c r="R203">
-        <v>0.827</v>
+        <v>0.978</v>
       </c>
       <c r="S203">
-        <v>0.781</v>
+        <v>0.956</v>
       </c>
       <c r="T203">
-        <v>0.851</v>
+        <v>0.954</v>
       </c>
     </row>
     <row r="204" spans="1:20">
@@ -7455,17 +7455,11 @@
       <c r="D206" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G206">
-        <v>0.787</v>
-      </c>
-      <c r="H206">
-        <v>0.737</v>
-      </c>
       <c r="I206">
-        <v>0.647</v>
+        <v>0.509</v>
       </c>
       <c r="J206">
-        <v>0.761</v>
+        <v>0.8139999999999999</v>
       </c>
     </row>
     <row r="207" spans="1:20">
@@ -7481,11 +7475,17 @@
       <c r="D207" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="G207">
+        <v>0.787</v>
+      </c>
+      <c r="H207">
+        <v>0.737</v>
+      </c>
       <c r="I207">
-        <v>0.509</v>
+        <v>0.647</v>
       </c>
       <c r="J207">
-        <v>0.8139999999999999</v>
+        <v>0.761</v>
       </c>
     </row>
     <row r="208" spans="1:20">
@@ -7560,28 +7560,43 @@
         <v>64</v>
       </c>
       <c r="C210" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="E210">
+        <v>0.482</v>
+      </c>
+      <c r="F210">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="G210">
+        <v>0.794</v>
+      </c>
+      <c r="H210">
+        <v>0.59</v>
+      </c>
+      <c r="I210">
+        <v>0.758</v>
       </c>
       <c r="J210">
-        <v>0.407</v>
+        <v>0.721</v>
       </c>
       <c r="K210">
-        <v>0.578</v>
+        <v>0.706</v>
       </c>
       <c r="L210">
-        <v>0.71</v>
+        <v>0.775</v>
       </c>
       <c r="M210">
-        <v>0.757</v>
+        <v>0.822</v>
       </c>
       <c r="N210">
-        <v>0.623</v>
+        <v>0.767</v>
       </c>
       <c r="O210">
-        <v>0.695</v>
+        <v>0.753</v>
       </c>
     </row>
     <row r="211" spans="1:20">
@@ -7592,43 +7607,16 @@
         <v>64</v>
       </c>
       <c r="C211" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E211">
-        <v>0.482</v>
-      </c>
-      <c r="F211">
-        <v>0.5649999999999999</v>
-      </c>
-      <c r="G211">
-        <v>0.794</v>
-      </c>
-      <c r="H211">
-        <v>0.59</v>
+        <v>78</v>
       </c>
       <c r="I211">
-        <v>0.758</v>
+        <v>0.783</v>
       </c>
       <c r="J211">
-        <v>0.721</v>
-      </c>
-      <c r="K211">
-        <v>0.706</v>
-      </c>
-      <c r="L211">
-        <v>0.775</v>
-      </c>
-      <c r="M211">
-        <v>0.822</v>
-      </c>
-      <c r="N211">
-        <v>0.767</v>
-      </c>
-      <c r="O211">
-        <v>0.753</v>
+        <v>0.832</v>
       </c>
     </row>
     <row r="212" spans="1:20">
@@ -7639,43 +7627,28 @@
         <v>64</v>
       </c>
       <c r="C212" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E212">
-        <v>0.977</v>
-      </c>
-      <c r="F212">
-        <v>0.957</v>
-      </c>
-      <c r="G212">
-        <v>0.944</v>
-      </c>
-      <c r="H212">
-        <v>0.9419999999999999</v>
-      </c>
-      <c r="I212">
-        <v>0.966</v>
+        <v>80</v>
       </c>
       <c r="J212">
-        <v>0.971</v>
+        <v>0.407</v>
       </c>
       <c r="K212">
-        <v>0.96</v>
+        <v>0.578</v>
       </c>
       <c r="L212">
-        <v>0.969</v>
+        <v>0.71</v>
       </c>
       <c r="M212">
-        <v>0.97</v>
+        <v>0.757</v>
       </c>
       <c r="N212">
-        <v>0.955</v>
+        <v>0.623</v>
       </c>
       <c r="O212">
-        <v>0.958</v>
+        <v>0.695</v>
       </c>
     </row>
     <row r="213" spans="1:20">
@@ -7691,11 +7664,38 @@
       <c r="D213" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="E213">
+        <v>0.977</v>
+      </c>
+      <c r="F213">
+        <v>0.957</v>
+      </c>
+      <c r="G213">
+        <v>0.944</v>
+      </c>
+      <c r="H213">
+        <v>0.9419999999999999</v>
+      </c>
       <c r="I213">
-        <v>0.783</v>
+        <v>0.966</v>
       </c>
       <c r="J213">
-        <v>0.832</v>
+        <v>0.971</v>
+      </c>
+      <c r="K213">
+        <v>0.96</v>
+      </c>
+      <c r="L213">
+        <v>0.969</v>
+      </c>
+      <c r="M213">
+        <v>0.97</v>
+      </c>
+      <c r="N213">
+        <v>0.955</v>
+      </c>
+      <c r="O213">
+        <v>0.958</v>
       </c>
     </row>
     <row r="214" spans="1:20">
@@ -7735,25 +7735,25 @@
         <v>65</v>
       </c>
       <c r="C215" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K215">
-        <v>0.587</v>
+        <v>0.981</v>
       </c>
       <c r="L215">
-        <v>0.649</v>
+        <v>0.977</v>
       </c>
       <c r="M215">
-        <v>0.84</v>
+        <v>0.964</v>
       </c>
       <c r="N215">
-        <v>0.672</v>
+        <v>0.963</v>
       </c>
       <c r="O215">
-        <v>0.611</v>
+        <v>0.958</v>
       </c>
     </row>
     <row r="216" spans="1:20">
@@ -7764,25 +7764,25 @@
         <v>65</v>
       </c>
       <c r="C216" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K216">
-        <v>0.981</v>
+        <v>0.587</v>
       </c>
       <c r="L216">
-        <v>0.977</v>
+        <v>0.649</v>
       </c>
       <c r="M216">
-        <v>0.964</v>
+        <v>0.84</v>
       </c>
       <c r="N216">
-        <v>0.963</v>
+        <v>0.672</v>
       </c>
       <c r="O216">
-        <v>0.958</v>
+        <v>0.611</v>
       </c>
     </row>
     <row r="217" spans="1:20">
@@ -7793,10 +7793,10 @@
         <v>65</v>
       </c>
       <c r="C217" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K217">
         <v>0.731</v>
@@ -7839,31 +7839,31 @@
         <v>66</v>
       </c>
       <c r="C219" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J219">
-        <v>1</v>
+        <v>0.497</v>
       </c>
       <c r="O219">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="P219">
-        <v>0.991</v>
+        <v>0.487</v>
       </c>
       <c r="Q219">
-        <v>0.988</v>
+        <v>0.48</v>
       </c>
       <c r="R219">
-        <v>0.991</v>
+        <v>0.485</v>
       </c>
       <c r="S219">
-        <v>0.99</v>
+        <v>0.505</v>
       </c>
       <c r="T219">
-        <v>0.993</v>
+        <v>0.541</v>
       </c>
     </row>
     <row r="220" spans="1:20">
@@ -7874,31 +7874,28 @@
         <v>66</v>
       </c>
       <c r="C220" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J220">
-        <v>0.497</v>
+        <v>78</v>
       </c>
       <c r="O220">
-        <v>0.38</v>
+        <v>0.582</v>
       </c>
       <c r="P220">
-        <v>0.487</v>
+        <v>0.605</v>
       </c>
       <c r="Q220">
-        <v>0.48</v>
+        <v>0.632</v>
       </c>
       <c r="R220">
-        <v>0.485</v>
+        <v>0.599</v>
       </c>
       <c r="S220">
-        <v>0.505</v>
+        <v>0.515</v>
       </c>
       <c r="T220">
-        <v>0.541</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="221" spans="1:20">
@@ -7909,31 +7906,31 @@
         <v>66</v>
       </c>
       <c r="C221" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J221">
-        <v>0.433</v>
+        <v>1</v>
       </c>
       <c r="O221">
-        <v>0.469</v>
+        <v>1</v>
       </c>
       <c r="P221">
-        <v>0.506</v>
+        <v>0.991</v>
       </c>
       <c r="Q221">
-        <v>0.539</v>
+        <v>0.988</v>
       </c>
       <c r="R221">
-        <v>0.519</v>
+        <v>0.991</v>
       </c>
       <c r="S221">
-        <v>0.484</v>
+        <v>0.99</v>
       </c>
       <c r="T221">
-        <v>0.654</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="222" spans="1:20">
@@ -7949,23 +7946,26 @@
       <c r="D222" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="J222">
+        <v>0.433</v>
+      </c>
       <c r="O222">
-        <v>0.582</v>
+        <v>0.469</v>
       </c>
       <c r="P222">
-        <v>0.605</v>
+        <v>0.506</v>
       </c>
       <c r="Q222">
-        <v>0.632</v>
+        <v>0.539</v>
       </c>
       <c r="R222">
-        <v>0.599</v>
+        <v>0.519</v>
       </c>
       <c r="S222">
-        <v>0.515</v>
+        <v>0.484</v>
       </c>
       <c r="T222">
-        <v>0.67</v>
+        <v>0.654</v>
       </c>
     </row>
     <row r="223" spans="1:20">
@@ -8045,23 +8045,11 @@
       <c r="D225" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E225">
-        <v>0.572</v>
-      </c>
-      <c r="F225">
-        <v>0.579</v>
-      </c>
-      <c r="G225">
-        <v>0.745</v>
-      </c>
-      <c r="H225">
-        <v>0.592</v>
-      </c>
       <c r="I225">
-        <v>0.726</v>
+        <v>0.805</v>
       </c>
       <c r="J225">
-        <v>0.762</v>
+        <v>0.963</v>
       </c>
     </row>
     <row r="226" spans="1:20">
@@ -8077,11 +8065,23 @@
       <c r="D226" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="E226">
+        <v>0.572</v>
+      </c>
+      <c r="F226">
+        <v>0.579</v>
+      </c>
+      <c r="G226">
+        <v>0.745</v>
+      </c>
+      <c r="H226">
+        <v>0.592</v>
+      </c>
       <c r="I226">
-        <v>0.805</v>
+        <v>0.726</v>
       </c>
       <c r="J226">
-        <v>0.963</v>
+        <v>0.762</v>
       </c>
     </row>
     <row r="227" spans="1:20">
@@ -8124,43 +8124,43 @@
         <v>68</v>
       </c>
       <c r="C228" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J228">
-        <v>0.516</v>
+        <v>0.986</v>
       </c>
       <c r="K228">
-        <v>0.583</v>
+        <v>0.984</v>
       </c>
       <c r="L228">
-        <v>0.6820000000000001</v>
+        <v>0.979</v>
       </c>
       <c r="M228">
-        <v>0.908</v>
+        <v>0.984</v>
       </c>
       <c r="N228">
-        <v>0.661</v>
+        <v>0.979</v>
       </c>
       <c r="O228">
-        <v>0.555</v>
+        <v>0.982</v>
       </c>
       <c r="P228">
-        <v>0.502</v>
+        <v>0.986</v>
       </c>
       <c r="Q228">
-        <v>0.453</v>
+        <v>0.989</v>
       </c>
       <c r="R228">
-        <v>0.465</v>
+        <v>0.989</v>
       </c>
       <c r="S228">
-        <v>0.475</v>
+        <v>0.989</v>
       </c>
       <c r="T228">
-        <v>0.503</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="229" spans="1:20">
@@ -8171,43 +8171,28 @@
         <v>68</v>
       </c>
       <c r="C229" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J229">
-        <v>0.986</v>
-      </c>
-      <c r="K229">
-        <v>0.984</v>
-      </c>
-      <c r="L229">
-        <v>0.979</v>
-      </c>
-      <c r="M229">
-        <v>0.984</v>
-      </c>
-      <c r="N229">
-        <v>0.979</v>
+        <v>78</v>
       </c>
       <c r="O229">
-        <v>0.982</v>
+        <v>0.586</v>
       </c>
       <c r="P229">
-        <v>0.986</v>
+        <v>0.523</v>
       </c>
       <c r="Q229">
-        <v>0.989</v>
+        <v>0.523</v>
       </c>
       <c r="R229">
-        <v>0.989</v>
+        <v>0.525</v>
       </c>
       <c r="S229">
-        <v>0.989</v>
+        <v>0.498</v>
       </c>
       <c r="T229">
-        <v>0.996</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="230" spans="1:20">
@@ -8218,43 +8203,43 @@
         <v>68</v>
       </c>
       <c r="C230" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J230">
-        <v>0.665</v>
+        <v>0.516</v>
       </c>
       <c r="K230">
-        <v>0.72</v>
+        <v>0.583</v>
       </c>
       <c r="L230">
-        <v>0.783</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="M230">
-        <v>0.799</v>
+        <v>0.908</v>
       </c>
       <c r="N230">
-        <v>0.845</v>
+        <v>0.661</v>
       </c>
       <c r="O230">
-        <v>0.77</v>
+        <v>0.555</v>
       </c>
       <c r="P230">
-        <v>0.742</v>
+        <v>0.502</v>
       </c>
       <c r="Q230">
-        <v>0.743</v>
+        <v>0.453</v>
       </c>
       <c r="R230">
-        <v>0.72</v>
+        <v>0.465</v>
       </c>
       <c r="S230">
-        <v>0.697</v>
+        <v>0.475</v>
       </c>
       <c r="T230">
-        <v>0.573</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="231" spans="1:20">
@@ -8270,23 +8255,38 @@
       <c r="D231" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="J231">
+        <v>0.665</v>
+      </c>
+      <c r="K231">
+        <v>0.72</v>
+      </c>
+      <c r="L231">
+        <v>0.783</v>
+      </c>
+      <c r="M231">
+        <v>0.799</v>
+      </c>
+      <c r="N231">
+        <v>0.845</v>
+      </c>
       <c r="O231">
-        <v>0.586</v>
+        <v>0.77</v>
       </c>
       <c r="P231">
-        <v>0.523</v>
+        <v>0.742</v>
       </c>
       <c r="Q231">
-        <v>0.523</v>
+        <v>0.743</v>
       </c>
       <c r="R231">
-        <v>0.525</v>
+        <v>0.72</v>
       </c>
       <c r="S231">
-        <v>0.498</v>
+        <v>0.697</v>
       </c>
       <c r="T231">
-        <v>0.38</v>
+        <v>0.573</v>
       </c>
     </row>
     <row r="232" spans="1:20">
@@ -8329,28 +8329,28 @@
         <v>69</v>
       </c>
       <c r="C233" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J233">
-        <v>0.493</v>
+        <v>0.981</v>
       </c>
       <c r="K233">
-        <v>0.579</v>
+        <v>0.984</v>
       </c>
       <c r="L233">
-        <v>0.7</v>
+        <v>0.985</v>
       </c>
       <c r="M233">
-        <v>0.754</v>
+        <v>0.986</v>
       </c>
       <c r="N233">
-        <v>0.704</v>
+        <v>0.983</v>
       </c>
       <c r="O233">
-        <v>0.613</v>
+        <v>0.974</v>
       </c>
     </row>
     <row r="234" spans="1:20">
@@ -8361,28 +8361,28 @@
         <v>69</v>
       </c>
       <c r="C234" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J234">
-        <v>0.981</v>
+        <v>0.493</v>
       </c>
       <c r="K234">
-        <v>0.984</v>
+        <v>0.579</v>
       </c>
       <c r="L234">
-        <v>0.985</v>
+        <v>0.7</v>
       </c>
       <c r="M234">
-        <v>0.986</v>
+        <v>0.754</v>
       </c>
       <c r="N234">
-        <v>0.983</v>
+        <v>0.704</v>
       </c>
       <c r="O234">
-        <v>0.974</v>
+        <v>0.613</v>
       </c>
     </row>
     <row r="235" spans="1:20">
@@ -8393,10 +8393,10 @@
         <v>69</v>
       </c>
       <c r="C235" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J235">
         <v>0.673</v>
